--- a/Mappings.xlsx
+++ b/Mappings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Data Curation/Data Profiling/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3043F7CF-7996-4B45-817E-51317B315B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F020697-66E0-5444-84CB-95DBC1B2E83D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19920" xr2:uid="{6FE52089-8C56-2242-B3F4-49FB4D2582C1}"/>
+    <workbookView xWindow="38400" yWindow="2460" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{6FE52089-8C56-2242-B3F4-49FB4D2582C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Farming System" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="212">
   <si>
     <t>Lowland Rice</t>
   </si>
@@ -52,9 +52,6 @@
     <t>Temperate Mixed</t>
   </si>
   <si>
-    <t>Upland Intensive mixed</t>
-  </si>
-  <si>
     <t xml:space="preserve">Coastal plantation and mixed </t>
   </si>
   <si>
@@ -668,6 +665,18 @@
   </si>
   <si>
     <t>young, well drained and deep Camerron - wet savannah soils  are dominated by ferralitic,  Ethiopian highlands are dominated (85 per cent) by four soil types (Nitisols, Leptosols, Luvisols and Vertisols);Lesotho,  Andosols and  Luvisols. The valley bottoms in this system are usually enriched by alluvial soils</t>
+  </si>
+  <si>
+    <t>Upland Intensive Mixed</t>
+  </si>
+  <si>
+    <t>Pigeopea</t>
+  </si>
+  <si>
+    <t>Olive</t>
+  </si>
+  <si>
+    <t>Pulse (green gram)</t>
   </si>
 </sst>
 </file>
@@ -730,14 +739,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -1056,8 +1062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC4B1030-8B49-DF45-8E38-9488311E9BDC}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A2:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1069,94 +1075,94 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" t="s">
         <v>40</v>
-      </c>
-      <c r="G1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
         <v>35</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1167,66 +1173,66 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -1234,15 +1240,15 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>3</v>
+        <v>208</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1255,7 +1261,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BDC301C-CCCB-784C-AE1A-250E980C7009}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A2:A16"/>
@@ -1270,144 +1276,141 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B20">
@@ -1440,126 +1443,99 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="H1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" t="s">
         <v>83</v>
       </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="B8" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B9" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" s="3"/>
@@ -1720,8 +1696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22A2E2C1-9C72-1C41-A976-AEC231EBF41D}">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1735,464 +1711,414 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="H1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C4" s="5"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B12" s="8" t="s">
+      <c r="B18" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C13" s="5"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C16" s="8" t="s">
+      <c r="C26" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C19" s="5"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="C20" s="5"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C21" s="5"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C24" s="5"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="C25" s="5"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C27" s="5"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C28" s="5"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C29" s="5"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="C30" s="5"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C31" s="5"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C32" s="5"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="B33" s="8" t="s">
+      <c r="B41" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C33" s="5"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C34" s="5"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C35" s="5"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C36" s="5"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="C37" s="5"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C38" s="5"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" s="5"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C40" s="5"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C41" s="5"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="C42" s="5"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C43" s="5"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="C44" s="5"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="C45" s="5"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C46" s="5"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="C47" s="5"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="C48" s="5"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="C49" s="5"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C50" s="5"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B64" s="3"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.2">
@@ -2210,7 +2136,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB78905-1DE1-8342-9CF6-0AC7081CF876}">
   <dimension ref="B2:B65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2218,322 +2144,322 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B29" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B31" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B32" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B38" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B39" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B41" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B42" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B43" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B44" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B45" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B46" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B47" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B48" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B49" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B50" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B51" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B52" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B53" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B54" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B55" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B56" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B57" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B58" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B59" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B60" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B61" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B62" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B63" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B64" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B65" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/Mappings.xlsx
+++ b/Mappings.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Data Curation/Data Profiling/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F020697-66E0-5444-84CB-95DBC1B2E83D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8363C590-93BF-0545-9D00-B5EA95A5A1E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="2460" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{6FE52089-8C56-2242-B3F4-49FB4D2582C1}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" activeTab="4" xr2:uid="{6FE52089-8C56-2242-B3F4-49FB4D2582C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Farming System" sheetId="1" r:id="rId1"/>
     <sheet name="Agro-ecological zone" sheetId="2" r:id="rId2"/>
     <sheet name="Bib. resources" sheetId="3" r:id="rId3"/>
     <sheet name="Commodities" sheetId="4" r:id="rId4"/>
-    <sheet name="Soil type" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Tags" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="320">
   <si>
     <t>Lowland Rice</t>
   </si>
@@ -520,153 +519,6 @@
     <t>Pulse</t>
   </si>
   <si>
-    <t> Sand, clay loams or</t>
-  </si>
-  <si>
-    <t>alluvial</t>
-  </si>
-  <si>
-    <t>Black cotton and sandy loam soils. Soils with a pH ranging from 6.0 to 8.0 are best suited</t>
-  </si>
-  <si>
-    <t>black cotton soils, well drained with a p H ranging from 7.0 - 8.5.</t>
-  </si>
-  <si>
-    <t>Clay content &lt;10% (sandy soils) or in excess of 30% (clay and clay-loam soils)</t>
-  </si>
-  <si>
-    <t>Clay loam</t>
-  </si>
-  <si>
-    <t>Clay loam or loams</t>
-  </si>
-  <si>
-    <t>Clay loams; Silty loams</t>
-  </si>
-  <si>
-    <t>Clay loams; Silty loams; Sandy loams</t>
-  </si>
-  <si>
-    <t>Clay or clay loams</t>
-  </si>
-  <si>
-    <t>clay-limestone fraction,sandy loams or clays</t>
-  </si>
-  <si>
-    <t>Deep and well-drained soils and fertile soil with a pH level of between 5.0 and 5.6</t>
-  </si>
-  <si>
-    <t>deep fertile clayey or loamy soils which can be easily puddled into mud and develop cracks on drying. Rice can alos be grown on silts, loams and gravels and can tolerate acidic as well as alkaline soils</t>
-  </si>
-  <si>
-    <t>dry, chalky/clay-rich soil, </t>
-  </si>
-  <si>
-    <t>easily worked, semi-deep loam soils, with good drainage and a supply of nutrients. Acid soils with a pH of 4.5 (in Cajamarca, Peru) and alkaline soils with a pH of up to 9.5 (in Uyuni, Bolivia)</t>
-  </si>
-  <si>
-    <t>Fluvisols, cambisols and acrisols</t>
-  </si>
-  <si>
-    <t>Groundnuts grow best in light textured sandy loam soils with neutral Ph</t>
-  </si>
-  <si>
-    <t>Laoamy-clay</t>
-  </si>
-  <si>
-    <t>light clay or heavy loam</t>
-  </si>
-  <si>
-    <t>Loamy</t>
-  </si>
-  <si>
-    <t>Loamy </t>
-  </si>
-  <si>
-    <t>Loamy (a mixture of sand, silt, and clay)</t>
-  </si>
-  <si>
-    <t>Loamy sand</t>
-  </si>
-  <si>
-    <t>loamy sand to clay loam</t>
-  </si>
-  <si>
-    <t>Loamy soil</t>
-  </si>
-  <si>
-    <t>Loamy-clayey soils</t>
-  </si>
-  <si>
-    <t>Loamy-sandy</t>
-  </si>
-  <si>
-    <t>Loamy, sandy</t>
-  </si>
-  <si>
-    <t>Maize grows in a wide range of soils, ranging from temperate podzols to the leached red soils of the tropics. But, the best suitable soil for maize is deep, rich soils of the sub-tropics, where there is abundant nitrogen. </t>
-  </si>
-  <si>
-    <t>Mollisol</t>
-  </si>
-  <si>
-    <t>podzolic alluvium, clay. Fertile riverine alluvial soil is best for rice cultivation. </t>
-  </si>
-  <si>
-    <t>Red laterite soils, clay loam soil, sandy loam soil.</t>
-  </si>
-  <si>
-    <t>Sandy loam</t>
-  </si>
-  <si>
-    <t>Sandy loam soils</t>
-  </si>
-  <si>
-    <t>Sandy loams</t>
-  </si>
-  <si>
-    <t>Sandy soils</t>
-  </si>
-  <si>
-    <t>sandy to clay loamy with a PH near 7</t>
-  </si>
-  <si>
-    <t>Savanna Ochrosols, Well-drained sandy loams, Ferruginous soils,Ferralitic soils,Raw mineral soils</t>
-  </si>
-  <si>
-    <t>Shallow soils (Sandy loam) with good organic matter to virgin soils on steep mountain slopes or flatlands</t>
-  </si>
-  <si>
-    <t>slightly acidic  sandy-loam soil with a PH of 5.0 to 7.0</t>
-  </si>
-  <si>
-    <t>Soils ranging fromclay loam to sand loamy to black cotton soil</t>
-  </si>
-  <si>
-    <t>Temperate podzols</t>
-  </si>
-  <si>
-    <t>Various</t>
-  </si>
-  <si>
-    <t>Various including loamy sands, clay loams, and clay and  classified as Oxisols, Vertisols, Ultisols, and Mollisols</t>
-  </si>
-  <si>
-    <t>Well drained</t>
-  </si>
-  <si>
-    <t>well drained fertile, friable loams and clay loams are the best suited soils for wheat cultivation</t>
-  </si>
-  <si>
-    <t>well drained,volcanic soils deep and sandy loam</t>
-  </si>
-  <si>
-    <t>Well-drained loamy soils</t>
-  </si>
-  <si>
-    <t>young, well drained and deep Camerron - wet savannah soils  are dominated by ferralitic,  Ethiopian highlands are dominated (85 per cent) by four soil types (Nitisols, Leptosols, Luvisols and Vertisols);Lesotho,  Andosols and  Luvisols. The valley bottoms in this system are usually enriched by alluvial soils</t>
-  </si>
-  <si>
     <t>Upland Intensive Mixed</t>
   </si>
   <si>
@@ -677,6 +529,477 @@
   </si>
   <si>
     <t>Pulse (green gram)</t>
+  </si>
+  <si>
+    <t>humid and moist subhumid</t>
+  </si>
+  <si>
+    <t>Humid and Moist Sub-humid</t>
+  </si>
+  <si>
+    <t>Arid and Semi-arid</t>
+  </si>
+  <si>
+    <t>Arid and semi-arid</t>
+  </si>
+  <si>
+    <t>Temperature related</t>
+  </si>
+  <si>
+    <t>Maritime related</t>
+  </si>
+  <si>
+    <t>Rainfall related</t>
+  </si>
+  <si>
+    <t>Biophysical</t>
+  </si>
+  <si>
+    <t>socioeconomic</t>
+  </si>
+  <si>
+    <t>socioeconomicsocioeconomic</t>
+  </si>
+  <si>
+    <t>Human capacity</t>
+  </si>
+  <si>
+    <t>agri knowledge</t>
+  </si>
+  <si>
+    <t>weather and environment</t>
+  </si>
+  <si>
+    <t>Agricultural knowledge</t>
+  </si>
+  <si>
+    <t>infrastructure</t>
+  </si>
+  <si>
+    <t>location specific</t>
+  </si>
+  <si>
+    <t>farm level</t>
+  </si>
+  <si>
+    <t>Institutions and policy</t>
+  </si>
+  <si>
+    <t>Economic</t>
+  </si>
+  <si>
+    <t>finance and markets</t>
+  </si>
+  <si>
+    <t>Market</t>
+  </si>
+  <si>
+    <t>finance</t>
+  </si>
+  <si>
+    <t>Sensitivity/susceptibility to harm</t>
+  </si>
+  <si>
+    <t>climate awareness</t>
+  </si>
+  <si>
+    <t>Lack of capacity to cope and adapt</t>
+  </si>
+  <si>
+    <t>Infrastructure</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Governance</t>
+  </si>
+  <si>
+    <t>Capacity building</t>
+  </si>
+  <si>
+    <t>research</t>
+  </si>
+  <si>
+    <t>climate smart agriculture</t>
+  </si>
+  <si>
+    <t>conservation agriculture</t>
+  </si>
+  <si>
+    <t>capacity building</t>
+  </si>
+  <si>
+    <t>research and development</t>
+  </si>
+  <si>
+    <t>Partnerships required</t>
+  </si>
+  <si>
+    <t>community level</t>
+  </si>
+  <si>
+    <t>partnership required</t>
+  </si>
+  <si>
+    <t>network dependent</t>
+  </si>
+  <si>
+    <t>Research and development</t>
+  </si>
+  <si>
+    <t>technology</t>
+  </si>
+  <si>
+    <t>institutions and policy</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Area of land</t>
+  </si>
+  <si>
+    <t>Food insecurity</t>
+  </si>
+  <si>
+    <t>Maritime Related</t>
+  </si>
+  <si>
+    <t>Season Related</t>
+  </si>
+  <si>
+    <t>Rainfall Related</t>
+  </si>
+  <si>
+    <t>Wind related</t>
+  </si>
+  <si>
+    <t>Socio-economic</t>
+  </si>
+  <si>
+    <t>Pest and diseases</t>
+  </si>
+  <si>
+    <t>Weather and environment</t>
+  </si>
+  <si>
+    <t>Capacity Building</t>
+  </si>
+  <si>
+    <t>Finance: Location specific</t>
+  </si>
+  <si>
+    <t>Ecosystem</t>
+  </si>
+  <si>
+    <t>Community level</t>
+  </si>
+  <si>
+    <t>Policy level</t>
+  </si>
+  <si>
+    <t>Partnership required</t>
+  </si>
+  <si>
+    <t>Network dependent</t>
+  </si>
+  <si>
+    <t>Finance: Farmer level</t>
+  </si>
+  <si>
+    <t>Research and Development</t>
+  </si>
+  <si>
+    <t>Farm level</t>
+  </si>
+  <si>
+    <t>Farmlevel</t>
+  </si>
+  <si>
+    <t>Location specific</t>
+  </si>
+  <si>
+    <t>Season related</t>
+  </si>
+  <si>
+    <t>Socioeconomic</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Agroforestry</t>
+  </si>
+  <si>
+    <t>Conservation agriculture</t>
+  </si>
+  <si>
+    <t>Climate-smart agriculture</t>
+  </si>
+  <si>
+    <t>Farm-level</t>
+  </si>
+  <si>
+    <t>Community-level</t>
+  </si>
+  <si>
+    <t>Policy-level</t>
+  </si>
+  <si>
+    <t>Policy and institutions</t>
+  </si>
+  <si>
+    <t>Weather and Environment</t>
+  </si>
+  <si>
+    <t>Ecosystem-based adaptation</t>
+  </si>
+  <si>
+    <t>Conservation Agriculture</t>
+  </si>
+  <si>
+    <t>Farm level.</t>
+  </si>
+  <si>
+    <t>Institutions and Policy</t>
+  </si>
+  <si>
+    <t>Socio economic</t>
+  </si>
+  <si>
+    <t>Pests and diseases</t>
+  </si>
+  <si>
+    <t>Ecosystem-based</t>
+  </si>
+  <si>
+    <t>Network required</t>
+  </si>
+  <si>
+    <t>Climate smart agriculture</t>
+  </si>
+  <si>
+    <t>Networking required</t>
+  </si>
+  <si>
+    <t>institution and policy</t>
+  </si>
+  <si>
+    <t>Institutions and policies</t>
+  </si>
+  <si>
+    <t>governance</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>institutitions and policy</t>
+  </si>
+  <si>
+    <t>Institution and policy</t>
+  </si>
+  <si>
+    <t>Conservation agriculture;</t>
+  </si>
+  <si>
+    <t>ommunty level</t>
+  </si>
+  <si>
+    <t>partnerships required</t>
+  </si>
+  <si>
+    <t>nfrastructure</t>
+  </si>
+  <si>
+    <t>Community-level;</t>
+  </si>
+  <si>
+    <t>Network dependent;</t>
+  </si>
+  <si>
+    <t>Network-dependent</t>
+  </si>
+  <si>
+    <t>maritime related</t>
+  </si>
+  <si>
+    <t>nstitutions and policy</t>
+  </si>
+  <si>
+    <t>Human Capacity</t>
+  </si>
+  <si>
+    <t>Finance;</t>
+  </si>
+  <si>
+    <t>wind related</t>
+  </si>
+  <si>
+    <t>weather and environment.</t>
+  </si>
+  <si>
+    <t>human capacity</t>
+  </si>
+  <si>
+    <t>Research and development;</t>
+  </si>
+  <si>
+    <t>instituitons and policy</t>
+  </si>
+  <si>
+    <t>community level.</t>
+  </si>
+  <si>
+    <t>parnerships required</t>
+  </si>
+  <si>
+    <t>policy level</t>
+  </si>
+  <si>
+    <t>parnerships requrired</t>
+  </si>
+  <si>
+    <t>Infrastrcuture</t>
+  </si>
+  <si>
+    <t>Policy-leve</t>
+  </si>
+  <si>
+    <t>Policy-level;</t>
+  </si>
+  <si>
+    <t>Temperature related and rainfall related</t>
+  </si>
+  <si>
+    <t>Biophysical related</t>
+  </si>
+  <si>
+    <t>Financial Financial</t>
+  </si>
+  <si>
+    <t>biophysical</t>
+  </si>
+  <si>
+    <t>Financial</t>
+  </si>
+  <si>
+    <t>Rainfall related.</t>
+  </si>
+  <si>
+    <t>Temperature related.</t>
+  </si>
+  <si>
+    <t>Socio-Economic</t>
+  </si>
+  <si>
+    <t>Pest and Diseases</t>
+  </si>
+  <si>
+    <t>Biophysical Biophysical</t>
+  </si>
+  <si>
+    <t>Human capital</t>
+  </si>
+  <si>
+    <t>gender and agri knowledge</t>
+  </si>
+  <si>
+    <t>financial and markets</t>
+  </si>
+  <si>
+    <t>Sensivity/susceptibility to harm</t>
+  </si>
+  <si>
+    <t>Natural capital</t>
+  </si>
+  <si>
+    <t>Physical capital</t>
+  </si>
+  <si>
+    <t>Political capita</t>
+  </si>
+  <si>
+    <t>Financial capital</t>
+  </si>
+  <si>
+    <t>Exposure</t>
+  </si>
+  <si>
+    <t>Risk</t>
+  </si>
+  <si>
+    <t>Temperature and rainfall related</t>
+  </si>
+  <si>
+    <t>Markets</t>
+  </si>
+  <si>
+    <t>Sensitivity and susceptibility to harm</t>
+  </si>
+  <si>
+    <t>agroforestry</t>
+  </si>
+  <si>
+    <t>climate-smart agriculture</t>
+  </si>
+  <si>
+    <t>Market accesss</t>
+  </si>
+  <si>
+    <t>Market access</t>
+  </si>
+  <si>
+    <t>rainfall related</t>
+  </si>
+  <si>
+    <t>season related</t>
+  </si>
+  <si>
+    <t>Human technology</t>
+  </si>
+  <si>
+    <t>national-level</t>
+  </si>
+  <si>
+    <t>Finance and network level</t>
+  </si>
+  <si>
+    <t>farm-level</t>
+  </si>
+  <si>
+    <t>Policy and institution</t>
+  </si>
+  <si>
+    <t>policy-level</t>
+  </si>
+  <si>
+    <t>Tag, additional details in parentheses</t>
+  </si>
+  <si>
+    <t>Climate awareness</t>
+  </si>
+  <si>
+    <t>Finance and markets</t>
+  </si>
+  <si>
+    <t>Finance (Farmer level)</t>
+  </si>
+  <si>
+    <t>Finance (Location specific)</t>
+  </si>
+  <si>
+    <t>Gender and agricultural knowledge</t>
+  </si>
+  <si>
+    <t>National-level</t>
+  </si>
+  <si>
+    <t>Political capital</t>
+  </si>
+  <si>
+    <t>Research</t>
   </si>
 </sst>
 </file>
@@ -1063,7 +1386,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A2:A20"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1245,7 +1568,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>208</v>
+        <v>159</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -1261,15 +1584,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BDC301C-CCCB-784C-AE1A-250E980C7009}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A2:A16"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="17" bestFit="1" customWidth="1"/>
   </cols>
@@ -1410,6 +1733,22 @@
       </c>
       <c r="B16" s="3" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B17" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B18" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -1696,8 +2035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22A2E2C1-9C72-1C41-A976-AEC231EBF41D}">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1971,7 +2310,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>210</v>
+        <v>161</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>131</v>
@@ -1987,7 +2326,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>209</v>
+        <v>160</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>132</v>
@@ -2011,7 +2350,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>211</v>
+        <v>162</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>135</v>
@@ -2133,350 +2472,778 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB78905-1DE1-8342-9CF6-0AC7081CF876}">
-  <dimension ref="B2:B65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8542E084-92E7-2C40-B211-9CB699C636AA}">
+  <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B2" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B3" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B6" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B7" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B8" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B9" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B10" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B11" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B12" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B13" s="3" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" t="s">
+        <v>279</v>
+      </c>
+      <c r="D5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C9" t="s">
+        <v>245</v>
+      </c>
+      <c r="D9" t="s">
+        <v>231</v>
+      </c>
+      <c r="E9" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D10" t="s">
+        <v>269</v>
+      </c>
+      <c r="E10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F10" t="s">
+        <v>257</v>
+      </c>
+      <c r="G10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D11" t="s">
+        <v>238</v>
+      </c>
+      <c r="E11" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B13" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B14" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B15" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B16" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B17" t="s">
+        <v>179</v>
+      </c>
+      <c r="C17" t="s">
+        <v>223</v>
+      </c>
+      <c r="D17" t="s">
+        <v>239</v>
+      </c>
+      <c r="E17" t="s">
+        <v>232</v>
+      </c>
+      <c r="F17" t="s">
+        <v>308</v>
+      </c>
+      <c r="G17" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B18" t="s">
+        <v>184</v>
+      </c>
+      <c r="C18" t="s">
+        <v>204</v>
+      </c>
+      <c r="D18" t="s">
+        <v>263</v>
+      </c>
+      <c r="E18" t="s">
+        <v>280</v>
+      </c>
+      <c r="F18" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B19" t="s">
+        <v>182</v>
+      </c>
+      <c r="C19" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B20" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B21" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B22" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B23" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B24" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B25" t="s">
+        <v>228</v>
+      </c>
+      <c r="C25" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B26" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B27" t="s">
+        <v>190</v>
+      </c>
+      <c r="C27" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B28" t="s">
+        <v>173</v>
+      </c>
+      <c r="C28" t="s">
+        <v>262</v>
+      </c>
+      <c r="D28" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B29" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B30" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B31" t="s">
+        <v>273</v>
+      </c>
+      <c r="C31" t="s">
+        <v>177</v>
+      </c>
+      <c r="D31" t="s">
+        <v>188</v>
+      </c>
+      <c r="E31" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B32" t="s">
+        <v>268</v>
+      </c>
+      <c r="C32" t="s">
+        <v>247</v>
+      </c>
+      <c r="D32" t="s">
+        <v>252</v>
+      </c>
+      <c r="E32" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B33" t="s">
+        <v>248</v>
+      </c>
+      <c r="C33" t="s">
+        <v>180</v>
+      </c>
+      <c r="D33" t="s">
+        <v>203</v>
+      </c>
+      <c r="E33" t="s">
+        <v>240</v>
+      </c>
+      <c r="F33" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B34" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B35" t="s">
+        <v>178</v>
+      </c>
+      <c r="C35" t="s">
+        <v>225</v>
+      </c>
+      <c r="D35" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B36" t="s">
+        <v>168</v>
+      </c>
+      <c r="C36" t="s">
+        <v>207</v>
+      </c>
+      <c r="D36" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B37" t="s">
+        <v>183</v>
+      </c>
+      <c r="C37" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B38" t="s">
+        <v>302</v>
+      </c>
+      <c r="C38" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B39" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B40" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B41" t="s">
+        <v>200</v>
+      </c>
+      <c r="C41" t="s">
+        <v>220</v>
+      </c>
+      <c r="D41" t="s">
+        <v>258</v>
+      </c>
+      <c r="E41" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B42" t="s">
+        <v>244</v>
+      </c>
+      <c r="C42" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B43" t="s">
+        <v>270</v>
+      </c>
+      <c r="C43" t="s">
+        <v>272</v>
+      </c>
+      <c r="D43" t="s">
+        <v>199</v>
+      </c>
+      <c r="E43" t="s">
+        <v>219</v>
+      </c>
+      <c r="F43" t="s">
+        <v>197</v>
+      </c>
+      <c r="G43" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B44" t="s">
+        <v>212</v>
+      </c>
+      <c r="C44" t="s">
+        <v>284</v>
+      </c>
+      <c r="D44" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B45" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B46" t="s">
+        <v>309</v>
+      </c>
+      <c r="C46" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B47" t="s">
+        <v>218</v>
+      </c>
+      <c r="C47" t="s">
+        <v>271</v>
+      </c>
+      <c r="D47" t="s">
+        <v>274</v>
+      </c>
+      <c r="E47" t="s">
+        <v>234</v>
+      </c>
+      <c r="F47" t="s">
+        <v>310</v>
+      </c>
+      <c r="G47" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B48" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B49" t="s">
+        <v>169</v>
+      </c>
+      <c r="C49" t="s">
+        <v>209</v>
+      </c>
+      <c r="D49" t="s">
+        <v>169</v>
+      </c>
+      <c r="E49" t="s">
+        <v>303</v>
+      </c>
+      <c r="F49" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B50" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B51" t="s">
+        <v>196</v>
+      </c>
+      <c r="C51" t="s">
+        <v>201</v>
+      </c>
+      <c r="D51" t="s">
+        <v>222</v>
+      </c>
+      <c r="E51" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B52" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B53" t="s">
+        <v>208</v>
+      </c>
+      <c r="C53" t="s">
+        <v>226</v>
+      </c>
+      <c r="D53" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B54" t="s">
+        <v>298</v>
+      </c>
+      <c r="C54" t="s">
+        <v>185</v>
+      </c>
+      <c r="D54" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B55" t="s">
+        <v>241</v>
+      </c>
+      <c r="C55" t="s">
+        <v>211</v>
+      </c>
+      <c r="D55" t="s">
+        <v>283</v>
+      </c>
+      <c r="E55" t="s">
+        <v>171</v>
+      </c>
+      <c r="F55" t="s">
+        <v>227</v>
+      </c>
+      <c r="G55" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B56" t="s">
+        <v>189</v>
+      </c>
+      <c r="C56" t="s">
+        <v>202</v>
+      </c>
+      <c r="D56" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B57" t="s">
+        <v>296</v>
+      </c>
+      <c r="C57" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B14" s="3" t="s">
+      <c r="B58" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B15" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B16" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B20" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B21" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B22" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B23" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B24" s="3" t="s">
+      <c r="C58" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B59" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B25" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B26" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B27" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B28" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B29" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B30" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B31" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B32" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B33" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B34" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B35" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B36" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B37" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B38" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B39" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B40" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B41" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B42" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B43" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B44" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B45" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B46" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B47" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B48" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B49" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B50" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B51" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B52" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B53" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B54" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B55" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B56" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B57" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B58" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B59" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B60" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B61" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B62" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B63" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B64" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B65" s="3" t="s">
-        <v>207</v>
+      <c r="C59" t="s">
+        <v>213</v>
+      </c>
+      <c r="D59" t="s">
+        <v>236</v>
+      </c>
+      <c r="E59" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B60" t="s">
+        <v>210</v>
+      </c>
+      <c r="C60" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8542E084-92E7-2C40-B211-9CB699C636AA}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B181">
+    <sortCondition ref="B2:B181"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Mappings.xlsx
+++ b/Mappings.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Data Curation/Data Profiling/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E96F99-625A-0F4C-A1F1-3590B031BCCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497856DA-235B-D246-A7B4-D57C6D2CB570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" activeTab="2" xr2:uid="{6FE52089-8C56-2242-B3F4-49FB4D2582C1}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" activeTab="4" xr2:uid="{6FE52089-8C56-2242-B3F4-49FB4D2582C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Farming System" sheetId="1" r:id="rId1"/>
     <sheet name="Agro-ecological zone" sheetId="2" r:id="rId2"/>
     <sheet name="Bib. resources" sheetId="3" r:id="rId3"/>
-    <sheet name="Domains" sheetId="7" r:id="rId4"/>
-    <sheet name="Organisations" sheetId="8" r:id="rId5"/>
-    <sheet name="Commodities" sheetId="4" r:id="rId6"/>
-    <sheet name="Tags" sheetId="6" r:id="rId7"/>
+    <sheet name="Resource Type" sheetId="9" r:id="rId4"/>
+    <sheet name="Irrigated Rainfed" sheetId="10" r:id="rId5"/>
+    <sheet name="Domains" sheetId="7" r:id="rId6"/>
+    <sheet name="Organisations" sheetId="8" r:id="rId7"/>
+    <sheet name="Commodities" sheetId="4" r:id="rId8"/>
+    <sheet name="Tags" sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1974" uniqueCount="1414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2100" uniqueCount="1533">
   <si>
     <t>Lowland Rice</t>
   </si>
@@ -4284,6 +4286,363 @@
   </si>
   <si>
     <t>IMF, 1995</t>
+  </si>
+  <si>
+    <t>ADB Policy Brief</t>
+  </si>
+  <si>
+    <t>ADB Report</t>
+  </si>
+  <si>
+    <t>Article</t>
+  </si>
+  <si>
+    <t>Article/Journal</t>
+  </si>
+  <si>
+    <t>Asian Journal</t>
+  </si>
+  <si>
+    <t>Book</t>
+  </si>
+  <si>
+    <t>Book (Chapter 8)</t>
+  </si>
+  <si>
+    <t>Book chapter</t>
+  </si>
+  <si>
+    <t>Book Chapter</t>
+  </si>
+  <si>
+    <t>Brief</t>
+  </si>
+  <si>
+    <t>Caribbean Marine climate change report card: science review</t>
+  </si>
+  <si>
+    <t>Center for Strategic and International Studies (CSIS) Report.</t>
+  </si>
+  <si>
+    <t>CEPAL Books</t>
+  </si>
+  <si>
+    <t>CGIAR Report</t>
+  </si>
+  <si>
+    <t>CGIAR report</t>
+  </si>
+  <si>
+    <t>CIAT and World Bank report</t>
+  </si>
+  <si>
+    <t>CIMMYT news publication</t>
+  </si>
+  <si>
+    <t>Climate Centre Report</t>
+  </si>
+  <si>
+    <t>Conference paper</t>
+  </si>
+  <si>
+    <t>Conference Paper</t>
+  </si>
+  <si>
+    <t>Country Profile</t>
+  </si>
+  <si>
+    <t>CSA profile document</t>
+  </si>
+  <si>
+    <t>Datasheet</t>
+  </si>
+  <si>
+    <t>ECLAC Publication</t>
+  </si>
+  <si>
+    <t>ECLAC Report</t>
+  </si>
+  <si>
+    <t>Economic review article</t>
+  </si>
+  <si>
+    <t>Editorial</t>
+  </si>
+  <si>
+    <t>ESCAP Report</t>
+  </si>
+  <si>
+    <t>Fact sheet</t>
+  </si>
+  <si>
+    <t>Fact Sheet</t>
+  </si>
+  <si>
+    <t>Factsheet</t>
+  </si>
+  <si>
+    <t>FAO Report</t>
+  </si>
+  <si>
+    <t>Forest service, US Department of Ariculture publication</t>
+  </si>
+  <si>
+    <t>Global Center on Adaptation Report</t>
+  </si>
+  <si>
+    <t>GOM Report</t>
+  </si>
+  <si>
+    <t>Government report</t>
+  </si>
+  <si>
+    <t>Handbook of Agricultural Economics</t>
+  </si>
+  <si>
+    <t>IADB Report</t>
+  </si>
+  <si>
+    <t>IDB document</t>
+  </si>
+  <si>
+    <t>IDB Report</t>
+  </si>
+  <si>
+    <t>IDB Working paper</t>
+  </si>
+  <si>
+    <t>IDMC Report</t>
+  </si>
+  <si>
+    <t>IFAD Report</t>
+  </si>
+  <si>
+    <t>IFPRI working paper</t>
+  </si>
+  <si>
+    <t>IMF document</t>
+  </si>
+  <si>
+    <t>IMF Report</t>
+  </si>
+  <si>
+    <t>Inter-American Development Bank Publication</t>
+  </si>
+  <si>
+    <t>Inter-American Institute for Cooperation on Agriculture document</t>
+  </si>
+  <si>
+    <t>INTERNATIONAL FOOD POLICY RESEARCH INSTITUTE(IFPRI) Report</t>
+  </si>
+  <si>
+    <t>International Journal of Agricultural Sustainability</t>
+  </si>
+  <si>
+    <t>IPCC Report</t>
+  </si>
+  <si>
+    <t>ISS Report</t>
+  </si>
+  <si>
+    <t>Jounal</t>
+  </si>
+  <si>
+    <t>Journal</t>
+  </si>
+  <si>
+    <t>journal</t>
+  </si>
+  <si>
+    <t>Journal article</t>
+  </si>
+  <si>
+    <t>Journal Article</t>
+  </si>
+  <si>
+    <t>Journal of Frontiers in Sustainable Food Systems</t>
+  </si>
+  <si>
+    <t>Key note paper</t>
+  </si>
+  <si>
+    <t>News article</t>
+  </si>
+  <si>
+    <t>Newsletter</t>
+  </si>
+  <si>
+    <t>OECD Report</t>
+  </si>
+  <si>
+    <t>Paper</t>
+  </si>
+  <si>
+    <t>Policy Brief</t>
+  </si>
+  <si>
+    <t>Policy brief</t>
+  </si>
+  <si>
+    <t>Powerpoint presentation</t>
+  </si>
+  <si>
+    <t>PowerPoint presentation</t>
+  </si>
+  <si>
+    <t>Project brief</t>
+  </si>
+  <si>
+    <t>Project note</t>
+  </si>
+  <si>
+    <t>Publication</t>
+  </si>
+  <si>
+    <t>University of Chile</t>
+  </si>
+  <si>
+    <t>Quartely Journal</t>
+  </si>
+  <si>
+    <t>Report</t>
+  </si>
+  <si>
+    <t>report</t>
+  </si>
+  <si>
+    <t>Report chapter</t>
+  </si>
+  <si>
+    <t>Research article</t>
+  </si>
+  <si>
+    <t>research paper</t>
+  </si>
+  <si>
+    <t>Research paper</t>
+  </si>
+  <si>
+    <t>Synthesis document</t>
+  </si>
+  <si>
+    <t>Technical Paper</t>
+  </si>
+  <si>
+    <t>Thesis</t>
+  </si>
+  <si>
+    <t>UEPA Report</t>
+  </si>
+  <si>
+    <t>UN Publication</t>
+  </si>
+  <si>
+    <t>UN Report</t>
+  </si>
+  <si>
+    <t>UN-ESCAP Report</t>
+  </si>
+  <si>
+    <t>UNCCD publication</t>
+  </si>
+  <si>
+    <t>UNCTAD document</t>
+  </si>
+  <si>
+    <t>UNCTAD Report</t>
+  </si>
+  <si>
+    <t>UNDP publication</t>
+  </si>
+  <si>
+    <t>UNDP Report</t>
+  </si>
+  <si>
+    <t>UNEP publication</t>
+  </si>
+  <si>
+    <t>UNEP Report</t>
+  </si>
+  <si>
+    <t>UNICEF Report</t>
+  </si>
+  <si>
+    <t>USAID Climate Risk Profile Report</t>
+  </si>
+  <si>
+    <t>USAID Report</t>
+  </si>
+  <si>
+    <t>Web article</t>
+  </si>
+  <si>
+    <t>Web publication</t>
+  </si>
+  <si>
+    <t>Webpage</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>website article</t>
+  </si>
+  <si>
+    <t>WFP publication</t>
+  </si>
+  <si>
+    <t>WMO publication</t>
+  </si>
+  <si>
+    <t>WMO Report</t>
+  </si>
+  <si>
+    <t>Working paper</t>
+  </si>
+  <si>
+    <t>World Bank publication press release</t>
+  </si>
+  <si>
+    <t>World Bank Report</t>
+  </si>
+  <si>
+    <t>World Vision Report</t>
+  </si>
+  <si>
+    <t>Publication (Center on Agriculture and Environment, AGRIMED)</t>
+  </si>
+  <si>
+    <t>Trade and Environment Review</t>
+  </si>
+  <si>
+    <t>Website article</t>
+  </si>
+  <si>
+    <t>Global Center for Food Systems Innovation (GCFSI) report.</t>
+  </si>
+  <si>
+    <t>Irrigated and rainfed</t>
+  </si>
+  <si>
+    <t>rainfed,irrigated</t>
+  </si>
+  <si>
+    <t>Rainfed</t>
+  </si>
+  <si>
+    <t>rainfed</t>
+  </si>
+  <si>
+    <t>Rainfed and irrigated</t>
+  </si>
+  <si>
+    <t>Rainfed;Irrigated</t>
+  </si>
+  <si>
+    <t>rainfed; irrigated</t>
+  </si>
+  <si>
+    <t>Both</t>
   </si>
 </sst>
 </file>
@@ -4362,7 +4721,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -4371,9 +4730,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5066,10 +5422,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A429990-AB52-034B-8D58-4C7AADF9FD2F}">
-  <dimension ref="A1:I875"/>
+  <dimension ref="A1:I744"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5103,10 +5459,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="2" t="s">
         <v>1225</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" t="s">
         <v>583</v>
       </c>
     </row>
@@ -5143,10 +5499,10 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="2" t="s">
         <v>1277</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" t="s">
         <v>700</v>
       </c>
     </row>
@@ -5159,10 +5515,10 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="2" t="s">
         <v>1359</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" t="s">
         <v>894</v>
       </c>
     </row>
@@ -5199,10 +5555,10 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="2" t="s">
         <v>1382</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" t="s">
         <v>963</v>
       </c>
     </row>
@@ -5213,7 +5569,7 @@
       <c r="B15" t="s">
         <v>336</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" t="s">
         <v>999</v>
       </c>
     </row>
@@ -5261,10 +5617,10 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="2" t="s">
         <v>1265</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" t="s">
         <v>682</v>
       </c>
     </row>
@@ -5344,10 +5700,10 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="2" t="s">
         <v>1383</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" t="s">
         <v>964</v>
       </c>
     </row>
@@ -5376,10 +5732,10 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="2" t="s">
         <v>1360</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" t="s">
         <v>895</v>
       </c>
       <c r="C35" t="s">
@@ -5395,10 +5751,10 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="2" t="s">
         <v>1213</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" t="s">
         <v>525</v>
       </c>
     </row>
@@ -5419,10 +5775,10 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="2" t="s">
         <v>1398</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" t="s">
         <v>1042</v>
       </c>
     </row>
@@ -5435,10 +5791,10 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="2" t="s">
         <v>1333</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" t="s">
         <v>834</v>
       </c>
     </row>
@@ -5481,18 +5837,17 @@
       <c r="B47" t="s">
         <v>366</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" t="s">
         <v>367</v>
       </c>
-      <c r="C48" s="9"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
@@ -5527,10 +5882,10 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="2" t="s">
         <v>1210</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" t="s">
         <v>516</v>
       </c>
     </row>
@@ -5567,10 +5922,10 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="2" t="s">
         <v>1295</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" t="s">
         <v>740</v>
       </c>
     </row>
@@ -5599,13 +5954,13 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="10" t="s">
+      <c r="A62" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" t="s">
         <v>828</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C62" t="s">
         <v>827</v>
       </c>
     </row>
@@ -5618,10 +5973,10 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="10" t="s">
+      <c r="A64" s="2" t="s">
         <v>1269</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B64" t="s">
         <v>687</v>
       </c>
     </row>
@@ -5658,18 +6013,18 @@
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="10" t="s">
+      <c r="A69" s="2" t="s">
         <v>1226</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B69" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="10" t="s">
+      <c r="A70" s="2" t="s">
         <v>1400</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B70" t="s">
         <v>1045</v>
       </c>
     </row>
@@ -5690,10 +6045,10 @@
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="10" t="s">
+      <c r="A73" s="2" t="s">
         <v>1224</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B73" t="s">
         <v>573</v>
       </c>
     </row>
@@ -5770,13 +6125,13 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="10" t="s">
+      <c r="A83" s="2" t="s">
         <v>1397</v>
       </c>
-      <c r="B83" s="9" t="s">
+      <c r="B83" t="s">
         <v>1039</v>
       </c>
-      <c r="C83" s="9" t="s">
+      <c r="C83" t="s">
         <v>1043</v>
       </c>
     </row>
@@ -5787,10 +6142,10 @@
       <c r="B84" t="s">
         <v>398</v>
       </c>
-      <c r="C84" s="9" t="s">
+      <c r="C84" t="s">
         <v>1040</v>
       </c>
-      <c r="D84" s="9" t="s">
+      <c r="D84" t="s">
         <v>1041</v>
       </c>
     </row>
@@ -5819,10 +6174,10 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="10" t="s">
+      <c r="A88" s="2" t="s">
         <v>1237</v>
       </c>
-      <c r="B88" s="9" t="s">
+      <c r="B88" t="s">
         <v>619</v>
       </c>
     </row>
@@ -5875,18 +6230,18 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="10" t="s">
+      <c r="A95" s="2" t="s">
         <v>1260</v>
       </c>
-      <c r="B95" s="9" t="s">
+      <c r="B95" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="10" t="s">
+      <c r="A96" s="2" t="s">
         <v>1252</v>
       </c>
-      <c r="B96" s="9" t="s">
+      <c r="B96" t="s">
         <v>664</v>
       </c>
     </row>
@@ -5931,10 +6286,10 @@
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" s="10" t="s">
+      <c r="A102" s="2" t="s">
         <v>1296</v>
       </c>
-      <c r="B102" s="9" t="s">
+      <c r="B102" t="s">
         <v>741</v>
       </c>
     </row>
@@ -6035,16 +6390,16 @@
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="10" t="s">
+      <c r="A115" s="2" t="s">
         <v>1182</v>
       </c>
-      <c r="B115" s="9" t="s">
+      <c r="B115" t="s">
         <v>896</v>
       </c>
-      <c r="C115" s="9" t="s">
+      <c r="C115" t="s">
         <v>896</v>
       </c>
-      <c r="D115" s="9" t="s">
+      <c r="D115" t="s">
         <v>907</v>
       </c>
     </row>
@@ -6089,10 +6444,10 @@
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="10" t="s">
+      <c r="A121" s="2" t="s">
         <v>1211</v>
       </c>
-      <c r="B121" s="9" t="s">
+      <c r="B121" t="s">
         <v>518</v>
       </c>
     </row>
@@ -6153,18 +6508,18 @@
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" s="10" t="s">
+      <c r="A129" s="2" t="s">
         <v>1258</v>
       </c>
-      <c r="B129" s="9" t="s">
+      <c r="B129" t="s">
         <v>672</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" s="10" t="s">
+      <c r="A130" s="2" t="s">
         <v>1375</v>
       </c>
-      <c r="B130" s="9" t="s">
+      <c r="B130" t="s">
         <v>942</v>
       </c>
     </row>
@@ -6185,21 +6540,21 @@
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" s="10" t="s">
+      <c r="A133" s="2" t="s">
         <v>1281</v>
       </c>
-      <c r="B133" s="9" t="s">
+      <c r="B133" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" s="10" t="s">
+      <c r="A134" s="2" t="s">
         <v>1361</v>
       </c>
-      <c r="B134" s="9" t="s">
+      <c r="B134" t="s">
         <v>897</v>
       </c>
-      <c r="C134" s="9" t="s">
+      <c r="C134" t="s">
         <v>898</v>
       </c>
     </row>
@@ -6228,10 +6583,10 @@
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" s="10" t="s">
+      <c r="A138" s="2" t="s">
         <v>1337</v>
       </c>
-      <c r="B138" s="9" t="s">
+      <c r="B138" t="s">
         <v>838</v>
       </c>
     </row>
@@ -6252,10 +6607,10 @@
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A141" s="10" t="s">
+      <c r="A141" s="2" t="s">
         <v>1220</v>
       </c>
-      <c r="B141" s="9" t="s">
+      <c r="B141" t="s">
         <v>557</v>
       </c>
     </row>
@@ -6359,10 +6714,10 @@
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A154" s="10" t="s">
+      <c r="A154" s="2" t="s">
         <v>1266</v>
       </c>
-      <c r="B154" s="9" t="s">
+      <c r="B154" t="s">
         <v>684</v>
       </c>
     </row>
@@ -6394,10 +6749,10 @@
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A158" s="10" t="s">
+      <c r="A158" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="B158" s="9" t="s">
+      <c r="B158" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6461,10 +6816,10 @@
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A166" s="10" t="s">
+      <c r="A166" s="2" t="s">
         <v>1297</v>
       </c>
-      <c r="B166" s="9" t="s">
+      <c r="B166" t="s">
         <v>742</v>
       </c>
     </row>
@@ -6495,10 +6850,10 @@
       <c r="B168" t="s">
         <v>80</v>
       </c>
-      <c r="C168" s="9" t="s">
+      <c r="C168" t="s">
         <v>668</v>
       </c>
-      <c r="D168" s="9" t="s">
+      <c r="D168" t="s">
         <v>494</v>
       </c>
     </row>
@@ -6522,229 +6877,229 @@
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A171" s="10" t="s">
+      <c r="A171" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B171" s="9" t="s">
+      <c r="B171" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A172" s="10" t="s">
+      <c r="A172" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="B172" s="9" t="s">
+      <c r="B172" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A173" s="10" t="s">
+      <c r="A173" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="B173" s="9" t="s">
+      <c r="B173" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A174" s="10" t="s">
+      <c r="A174" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="B174" s="9" t="s">
+      <c r="B174" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A175" s="10" t="s">
+      <c r="A175" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B175" s="9" t="s">
+      <c r="B175" t="s">
         <v>622</v>
       </c>
-      <c r="C175" s="9" t="s">
+      <c r="C175" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A176" s="10" t="s">
+      <c r="A176" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="B176" s="9" t="s">
+      <c r="B176" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A177" s="10" t="s">
+      <c r="A177" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="B177" s="9" t="s">
+      <c r="B177" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A178" s="10" t="s">
+      <c r="A178" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="B178" s="9" t="s">
+      <c r="B178" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A179" s="10" t="s">
+      <c r="A179" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="B179" s="9" t="s">
+      <c r="B179" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A180" s="10" t="s">
+      <c r="A180" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="B180" s="9" t="s">
+      <c r="B180" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A181" s="10" t="s">
+      <c r="A181" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="B181" s="9" t="s">
+      <c r="B181" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A182" s="10" t="s">
+      <c r="A182" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="B182" s="9" t="s">
+      <c r="B182" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A183" s="10" t="s">
+      <c r="A183" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="B183" s="9" t="s">
+      <c r="B183" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A184" s="10" t="s">
+      <c r="A184" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="B184" s="9" t="s">
+      <c r="B184" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A185" s="10" t="s">
+      <c r="A185" s="2" t="s">
         <v>1357</v>
       </c>
-      <c r="B185" s="9" t="s">
+      <c r="B185" t="s">
         <v>889</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A186" s="10" t="s">
+      <c r="A186" s="2" t="s">
         <v>1373</v>
       </c>
-      <c r="B186" s="9" t="s">
+      <c r="B186" t="s">
         <v>933</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A187" s="10" t="s">
+      <c r="A187" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="B187" s="9" t="s">
+      <c r="B187" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A188" s="10" t="s">
+      <c r="A188" s="2" t="s">
         <v>1408</v>
       </c>
-      <c r="B188" s="9" t="s">
+      <c r="B188" t="s">
         <v>1097</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A189" s="10" t="s">
+      <c r="A189" s="2" t="s">
         <v>1286</v>
       </c>
-      <c r="B189" s="9" t="s">
+      <c r="B189" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A190" s="10" t="s">
+      <c r="A190" s="2" t="s">
         <v>1322</v>
       </c>
-      <c r="B190" s="9" t="s">
+      <c r="B190" t="s">
         <v>801</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A191" s="10" t="s">
+      <c r="A191" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="B191" s="9" t="s">
+      <c r="B191" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A192" s="10" t="s">
+      <c r="A192" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="B192" s="9" t="s">
+      <c r="B192" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A193" s="10" t="s">
+      <c r="A193" s="2" t="s">
         <v>1411</v>
       </c>
-      <c r="B193" s="9" t="s">
+      <c r="B193" t="s">
         <v>1412</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A194" s="10" t="s">
+      <c r="A194" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="B194" s="9" t="s">
+      <c r="B194" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A195" s="10" t="s">
+      <c r="A195" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="B195" s="9" t="s">
+      <c r="B195" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A196" s="10" t="s">
+      <c r="A196" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="B196" s="9" t="s">
+      <c r="B196" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A197" s="10" t="s">
+      <c r="A197" s="2" t="s">
         <v>1212</v>
       </c>
-      <c r="B197" s="9" t="s">
+      <c r="B197" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A198" s="10" t="s">
+      <c r="A198" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="B198" s="9" t="s">
+      <c r="B198" t="s">
         <v>527</v>
       </c>
     </row>
@@ -6757,343 +7112,341 @@
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A200" s="10" t="s">
+      <c r="A200" s="2" t="s">
         <v>1404</v>
       </c>
-      <c r="B200" s="9" t="s">
+      <c r="B200" t="s">
         <v>1087</v>
       </c>
-      <c r="C200" s="9" t="s">
+      <c r="C200" t="s">
         <v>1089</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A201" s="10" t="s">
+      <c r="A201" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="B201" s="9" t="s">
+      <c r="B201" t="s">
         <v>528</v>
       </c>
-      <c r="C201" s="9" t="s">
+      <c r="C201" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A202" s="10" t="s">
+      <c r="A202" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="B202" s="9" t="s">
+      <c r="B202" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A203" s="10" t="s">
+      <c r="A203" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="B203" s="9" t="s">
+      <c r="B203" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A204" s="10" t="s">
+      <c r="A204" s="2" t="s">
         <v>1132</v>
       </c>
-      <c r="B204" s="9" t="s">
+      <c r="B204" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A205" s="10" t="s">
+      <c r="A205" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="B205" s="9" t="s">
+      <c r="B205" t="s">
         <v>532</v>
       </c>
-      <c r="C205" s="9" t="s">
+      <c r="C205" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A206" s="10" t="s">
+      <c r="A206" s="2" t="s">
         <v>1133</v>
       </c>
-      <c r="B206" s="9" t="s">
+      <c r="B206" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A207" s="10" t="s">
+      <c r="A207" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="B207" s="9" t="s">
+      <c r="B207" t="s">
         <v>533</v>
       </c>
-      <c r="C207" s="9" t="s">
+      <c r="C207" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A208" s="10" t="s">
+      <c r="A208" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="B208" s="9" t="s">
+      <c r="B208" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A209" s="10" t="s">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="B209" s="9" t="s">
+      <c r="B209" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A210" s="10" t="s">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="B210" s="9" t="s">
+      <c r="B210" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A211" s="10" t="s">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="B211" s="9" t="s">
+      <c r="B211" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A212" s="10" t="s">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="B212" s="9" t="s">
+      <c r="B212" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A213" s="10" t="s">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="B213" s="9" t="s">
+      <c r="B213" t="s">
         <v>539</v>
       </c>
-      <c r="C213" s="9" t="s">
+      <c r="C213" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A214" s="10" t="s">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="B214" s="9" t="s">
+      <c r="B214" t="s">
         <v>540</v>
       </c>
-      <c r="C214" s="9" t="s">
+      <c r="C214" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A215" s="10" t="s">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215" s="2" t="s">
         <v>1298</v>
       </c>
-      <c r="B215" s="9" t="s">
+      <c r="B215" t="s">
         <v>743</v>
       </c>
-      <c r="C215" s="9" t="s">
+      <c r="C215" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A216" s="10" t="s">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216" s="2" t="s">
         <v>1289</v>
       </c>
-      <c r="B216" s="9" t="s">
+      <c r="B216" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A217" s="10" t="s">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217" s="2" t="s">
         <v>547</v>
       </c>
       <c r="B217" t="s">
         <v>406</v>
       </c>
-      <c r="C217" s="9" t="s">
+      <c r="C217" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A218" s="10" t="s">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218" s="2" t="s">
         <v>1159</v>
       </c>
-      <c r="B218" s="9" t="s">
+      <c r="B218" t="s">
         <v>379</v>
       </c>
-      <c r="C218" s="9"/>
-      <c r="D218" s="9"/>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A219" s="10" t="s">
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219" s="2" t="s">
         <v>1302</v>
       </c>
-      <c r="B219" s="9" t="s">
+      <c r="B219" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A220" s="10" t="s">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220" s="2" t="s">
         <v>1215</v>
       </c>
-      <c r="B220" s="9" t="s">
+      <c r="B220" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A221" s="10" t="s">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A221" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="B221" s="9" t="s">
+      <c r="B221" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A222" s="10" t="s">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="B222" s="9" t="s">
+      <c r="B222" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A223" s="10" t="s">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="B223" s="9" t="s">
+      <c r="B223" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A224" s="10" t="s">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224" s="2" t="s">
         <v>1217</v>
       </c>
-      <c r="B224" s="9" t="s">
+      <c r="B224" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A225" s="10" t="s">
+      <c r="A225" s="2" t="s">
         <v>1218</v>
       </c>
-      <c r="B225" s="9" t="s">
+      <c r="B225" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A226" s="10" t="s">
+      <c r="A226" s="2" t="s">
         <v>1299</v>
       </c>
-      <c r="B226" s="9" t="s">
+      <c r="B226" t="s">
         <v>744</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A227" s="10" t="s">
+      <c r="A227" s="2" t="s">
         <v>1241</v>
       </c>
-      <c r="B227" s="9" t="s">
+      <c r="B227" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A228" s="10" t="s">
+      <c r="A228" s="2" t="s">
         <v>1344</v>
       </c>
-      <c r="B228" s="9" t="s">
+      <c r="B228" t="s">
         <v>849</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A229" s="10" t="s">
+      <c r="A229" s="2" t="s">
         <v>1308</v>
       </c>
-      <c r="B229" s="9" t="s">
+      <c r="B229" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A230" s="10" t="s">
+      <c r="A230" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="B230" s="9" t="s">
+      <c r="B230" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A231" s="10" t="s">
+      <c r="A231" s="2" t="s">
         <v>1362</v>
       </c>
-      <c r="B231" s="9" t="s">
+      <c r="B231" t="s">
         <v>899</v>
       </c>
-      <c r="C231" s="9" t="s">
+      <c r="C231" t="s">
         <v>900</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A232" s="10" t="s">
+      <c r="A232" s="2" t="s">
         <v>1358</v>
       </c>
-      <c r="B232" s="9" t="s">
+      <c r="B232" t="s">
         <v>891</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A233" s="10" t="s">
+      <c r="A233" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="B233" s="9" t="s">
+      <c r="B233" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A234" s="10" t="s">
+      <c r="A234" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="B234" s="9" t="s">
+      <c r="B234" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A235" s="10" t="s">
+      <c r="A235" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="B235" s="9" t="s">
+      <c r="B235" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A236" s="10" t="s">
+      <c r="A236" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="B236" s="9" t="s">
+      <c r="B236" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A237" s="10" t="s">
+      <c r="A237" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="B237" s="9" t="s">
+      <c r="B237" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A238" s="10" t="s">
+      <c r="A238" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="B238" s="9" t="s">
+      <c r="B238" t="s">
         <v>566</v>
       </c>
       <c r="C238" t="s">
@@ -7101,79 +7454,79 @@
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A239" s="10" t="s">
+      <c r="A239" s="2" t="s">
         <v>1409</v>
       </c>
-      <c r="B239" s="9" t="s">
+      <c r="B239" t="s">
         <v>588</v>
       </c>
       <c r="C239" s="6"/>
       <c r="D239" s="6"/>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A240" s="10" t="s">
+      <c r="A240" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="B240" s="9" t="s">
+      <c r="B240" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A241" s="10" t="s">
+      <c r="A241" s="2" t="s">
         <v>1271</v>
       </c>
-      <c r="B241" s="9" t="s">
+      <c r="B241" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A242" s="10" t="s">
+      <c r="A242" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="B242" s="9" t="s">
+      <c r="B242" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A243" s="10" t="s">
+      <c r="A243" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="B243" s="9" t="s">
+      <c r="B243" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A244" s="10" t="s">
+      <c r="A244" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="B244" s="9" t="s">
+      <c r="B244" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A245" s="10" t="s">
+      <c r="A245" s="2" t="s">
         <v>1288</v>
       </c>
-      <c r="B245" s="9" t="s">
+      <c r="B245" t="s">
         <v>723</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A246" s="10" t="s">
+      <c r="A246" s="2" t="s">
         <v>1274</v>
       </c>
-      <c r="B246" s="9" t="s">
+      <c r="B246" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A247" s="10" t="s">
+      <c r="A247" s="2" t="s">
         <v>1275</v>
       </c>
-      <c r="B247" s="9" t="s">
+      <c r="B247" t="s">
         <v>697</v>
       </c>
-      <c r="C247" s="9" t="s">
+      <c r="C247" t="s">
         <v>698</v>
       </c>
     </row>
@@ -7186,26 +7539,26 @@
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A249" s="10" t="s">
+      <c r="A249" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="B249" s="9" t="s">
+      <c r="B249" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A250" s="10" t="s">
+      <c r="A250" s="2" t="s">
         <v>1202</v>
       </c>
-      <c r="B250" s="9" t="s">
+      <c r="B250" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A251" s="10" t="s">
+      <c r="A251" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="B251" s="9" t="s">
+      <c r="B251" t="s">
         <v>572</v>
       </c>
     </row>
@@ -7221,262 +7574,262 @@
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A253" s="10" t="s">
+      <c r="A253" s="2" t="s">
         <v>1134</v>
       </c>
-      <c r="B253" s="9" t="s">
+      <c r="B253" t="s">
         <v>575</v>
       </c>
-      <c r="D253" s="9" t="s">
+      <c r="D253" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A254" s="10" t="s">
+      <c r="A254" s="2" t="s">
         <v>1294</v>
       </c>
-      <c r="B254" s="9" t="s">
+      <c r="B254" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A255" s="10" t="s">
+      <c r="A255" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="B255" s="9" t="s">
+      <c r="B255" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A256" s="10" t="s">
+      <c r="A256" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="B256" s="9" t="s">
+      <c r="B256" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A257" s="10" t="s">
+      <c r="A257" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="B257" s="9" t="s">
+      <c r="B257" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A258" s="10" t="s">
+      <c r="A258" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="B258" s="9" t="s">
+      <c r="B258" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A259" s="10" t="s">
+      <c r="A259" s="2" t="s">
         <v>1254</v>
       </c>
-      <c r="B259" s="9" t="s">
+      <c r="B259" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A260" s="10" t="s">
+      <c r="A260" s="2" t="s">
         <v>1250</v>
       </c>
-      <c r="B260" s="9" t="s">
+      <c r="B260" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A261" s="10" t="s">
+      <c r="A261" s="2" t="s">
         <v>1395</v>
       </c>
-      <c r="B261" s="9" t="s">
+      <c r="B261" t="s">
         <v>1000</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A262" s="10" t="s">
+      <c r="A262" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="B262" s="9" t="s">
+      <c r="B262" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A263" s="10" t="s">
+      <c r="A263" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="B263" s="9" t="s">
+      <c r="B263" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A264" s="10" t="s">
+      <c r="A264" s="2" t="s">
         <v>1407</v>
       </c>
-      <c r="B264" s="9" t="s">
+      <c r="B264" t="s">
         <v>1096</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A265" s="10" t="s">
+      <c r="A265" s="2" t="s">
         <v>1267</v>
       </c>
-      <c r="B265" s="9" t="s">
+      <c r="B265" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A266" s="10" t="s">
+      <c r="A266" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="B266" s="9" t="s">
+      <c r="B266" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A267" s="10" t="s">
+      <c r="A267" s="2" t="s">
         <v>1230</v>
       </c>
-      <c r="B267" s="9" t="s">
+      <c r="B267" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A268" s="10" t="s">
+      <c r="A268" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="B268" s="9" t="s">
+      <c r="B268" t="s">
         <v>591</v>
       </c>
-      <c r="C268" s="9" t="s">
+      <c r="C268" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A269" s="10" t="s">
+      <c r="A269" s="2" t="s">
         <v>1245</v>
       </c>
-      <c r="B269" s="9" t="s">
+      <c r="B269" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A270" s="10" t="s">
+      <c r="A270" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="B270" s="9" t="s">
+      <c r="B270" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A271" s="10" t="s">
+      <c r="A271" s="2" t="s">
         <v>1231</v>
       </c>
-      <c r="B271" s="9" t="s">
+      <c r="B271" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A272" s="10" t="s">
+      <c r="A272" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="B272" s="9" t="s">
+      <c r="B272" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A273" s="10" t="s">
+      <c r="A273" s="2" t="s">
         <v>1232</v>
       </c>
-      <c r="B273" s="9" t="s">
+      <c r="B273" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A274" s="10" t="s">
+      <c r="A274" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="B274" s="9" t="s">
+      <c r="B274" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A275" s="10" t="s">
+      <c r="A275" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="B275" s="9" t="s">
+      <c r="B275" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A276" s="10" t="s">
+      <c r="A276" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="B276" s="9" t="s">
+      <c r="B276" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A277" s="10" t="s">
+      <c r="A277" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="B277" s="9" t="s">
+      <c r="B277" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A278" s="10" t="s">
+      <c r="A278" s="2" t="s">
         <v>1406</v>
       </c>
-      <c r="B278" s="9" t="s">
+      <c r="B278" t="s">
         <v>1094</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A279" s="10" t="s">
+      <c r="A279" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="B279" s="9" t="s">
+      <c r="B279" t="s">
         <v>602</v>
       </c>
-      <c r="C279" s="9" t="s">
+      <c r="C279" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A280" s="10" t="s">
+      <c r="A280" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="B280" s="9" t="s">
+      <c r="B280" t="s">
         <v>603</v>
       </c>
-      <c r="C280" s="9" t="s">
+      <c r="C280" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A281" s="10" t="s">
+      <c r="A281" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="B281" s="9" t="s">
+      <c r="B281" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A282" s="10" t="s">
+      <c r="A282" s="2" t="s">
         <v>1236</v>
       </c>
-      <c r="B282" s="9" t="s">
+      <c r="B282" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A283" s="10" t="s">
+      <c r="A283" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="B283" s="9" t="s">
+      <c r="B283" t="s">
         <v>608</v>
       </c>
     </row>
@@ -7489,98 +7842,98 @@
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A285" s="10" t="s">
+      <c r="A285" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="B285" s="9" t="s">
+      <c r="B285" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A286" s="10" t="s">
+      <c r="A286" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="B286" s="9" t="s">
+      <c r="B286" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A287" s="10" t="s">
+      <c r="A287" s="2" t="s">
         <v>1378</v>
       </c>
-      <c r="B287" s="9" t="s">
+      <c r="B287" t="s">
         <v>951</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A288" s="10" t="s">
+      <c r="A288" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="B288" s="9" t="s">
+      <c r="B288" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A289" s="10" t="s">
+      <c r="A289" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="B289" s="9" t="s">
+      <c r="B289" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A290" s="10" t="s">
+      <c r="A290" s="2" t="s">
         <v>1384</v>
       </c>
-      <c r="B290" s="9" t="s">
+      <c r="B290" t="s">
         <v>965</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A291" s="10" t="s">
+      <c r="A291" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="B291" s="9" t="s">
+      <c r="B291" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A292" s="10" t="s">
+      <c r="A292" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="B292" s="9" t="s">
+      <c r="B292" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A293" s="10" t="s">
+      <c r="A293" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="B293" s="9" t="s">
+      <c r="B293" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A294" s="10" t="s">
+      <c r="A294" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="B294" s="9" t="s">
+      <c r="B294" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A295" s="10" t="s">
+      <c r="A295" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="B295" s="9" t="s">
+      <c r="B295" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A296" s="10" t="s">
+      <c r="A296" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="B296" s="9" t="s">
+      <c r="B296" t="s">
         <v>618</v>
       </c>
     </row>
@@ -7593,181 +7946,181 @@
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A298" s="10" t="s">
+      <c r="A298" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B298" s="9" t="s">
+      <c r="B298" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A299" s="10" t="s">
+      <c r="A299" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="B299" s="9" t="s">
+      <c r="B299" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A300" s="10" t="s">
+      <c r="A300" s="2" t="s">
         <v>1135</v>
       </c>
-      <c r="B300" s="9" t="s">
+      <c r="B300" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A301" s="10" t="s">
+      <c r="A301" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="B301" s="9" t="s">
+      <c r="B301" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A302" s="10" t="s">
+      <c r="A302" s="2" t="s">
         <v>1136</v>
       </c>
-      <c r="B302" s="9" t="s">
+      <c r="B302" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A303" s="10" t="s">
+      <c r="A303" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="B303" s="9" t="s">
+      <c r="B303" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A304" s="10" t="s">
+      <c r="A304" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="B304" s="9" t="s">
+      <c r="B304" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A305" s="10" t="s">
+      <c r="A305" s="2" t="s">
         <v>1137</v>
       </c>
-      <c r="B305" s="9" t="s">
+      <c r="B305" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A306" s="10" t="s">
+      <c r="A306" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="B306" s="9" t="s">
+      <c r="B306" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A307" s="10" t="s">
+      <c r="A307" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="B307" s="9" t="s">
+      <c r="B307" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A308" s="10" t="s">
+      <c r="A308" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="B308" s="9" t="s">
+      <c r="B308" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A309" s="10" t="s">
+      <c r="A309" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="B309" s="9" t="s">
+      <c r="B309" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A310" s="10" t="s">
+      <c r="A310" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="B310" s="9" t="s">
+      <c r="B310" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A311" s="10" t="s">
+      <c r="A311" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="B311" s="9" t="s">
+      <c r="B311" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A312" s="10" t="s">
+      <c r="A312" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="B312" s="9" t="s">
+      <c r="B312" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A313" s="10" t="s">
+      <c r="A313" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="B313" s="9" t="s">
+      <c r="B313" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A314" s="10" t="s">
+      <c r="A314" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="B314" s="9" t="s">
+      <c r="B314" t="s">
         <v>638</v>
       </c>
-      <c r="C314" s="9" t="s">
+      <c r="C314" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A315" s="10" t="s">
+      <c r="A315" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="B315" s="9" t="s">
+      <c r="B315" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A316" s="10" t="s">
+      <c r="A316" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="B316" s="9" t="s">
+      <c r="B316" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A317" s="10" t="s">
+      <c r="A317" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="B317" s="9" t="s">
+      <c r="B317" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A318" s="10" t="s">
+      <c r="A318" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="B318" s="9" t="s">
+      <c r="B318" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A319" s="10" t="s">
+      <c r="A319" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="B319" s="9" t="s">
+      <c r="B319" t="s">
         <v>645</v>
       </c>
     </row>
@@ -7780,69 +8133,69 @@
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A321" s="10" t="s">
+      <c r="A321" s="2" t="s">
         <v>1320</v>
       </c>
-      <c r="B321" s="9" t="s">
+      <c r="B321" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A322" s="10" t="s">
+      <c r="A322" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="B322" s="9" t="s">
+      <c r="B322" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A323" s="10" t="s">
+      <c r="A323" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="B323" s="9" t="s">
+      <c r="B323" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A324" s="10" t="s">
+      <c r="A324" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="B324" s="9" t="s">
+      <c r="B324" t="s">
         <v>649</v>
       </c>
-      <c r="C324" s="9" t="s">
+      <c r="C324" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A325" s="10" t="s">
+      <c r="A325" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="B325" s="9" t="s">
+      <c r="B325" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A326" s="10" t="s">
+      <c r="A326" s="2" t="s">
         <v>1242</v>
       </c>
-      <c r="B326" s="9" t="s">
+      <c r="B326" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A327" s="10" t="s">
+      <c r="A327" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="B327" s="9" t="s">
+      <c r="B327" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A328" s="10" t="s">
+      <c r="A328" s="2" t="s">
         <v>1403</v>
       </c>
-      <c r="B328" s="9" t="s">
+      <c r="B328" t="s">
         <v>1055</v>
       </c>
     </row>
@@ -7855,93 +8208,93 @@
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A330" s="10" t="s">
+      <c r="A330" s="2" t="s">
         <v>1205</v>
       </c>
-      <c r="B330" s="9" t="s">
+      <c r="B330" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A331" s="10" t="s">
+      <c r="A331" s="2" t="s">
         <v>1326</v>
       </c>
-      <c r="B331" s="9" t="s">
+      <c r="B331" t="s">
         <v>811</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A332" s="10" t="s">
+      <c r="A332" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="B332" s="9" t="s">
+      <c r="B332" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A333" s="10" t="s">
+      <c r="A333" s="2" t="s">
         <v>1393</v>
       </c>
-      <c r="B333" s="9" t="s">
+      <c r="B333" t="s">
         <v>993</v>
       </c>
-      <c r="C333" s="9" t="s">
+      <c r="C333" t="s">
         <v>994</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A334" s="10" t="s">
+      <c r="A334" s="2" t="s">
         <v>1263</v>
       </c>
-      <c r="B334" s="9" t="s">
+      <c r="B334" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A335" s="10" t="s">
+      <c r="A335" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="B335" s="9" t="s">
+      <c r="B335" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A336" s="10" t="s">
+      <c r="A336" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="B336" s="9" t="s">
+      <c r="B336" t="s">
         <v>679</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A337" s="10" t="s">
+      <c r="A337" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="B337" s="9" t="s">
+      <c r="B337" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A338" s="10" t="s">
+      <c r="A338" s="2" t="s">
         <v>1264</v>
       </c>
-      <c r="B338" s="9" t="s">
+      <c r="B338" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A339" s="10" t="s">
+      <c r="A339" s="2" t="s">
         <v>1402</v>
       </c>
-      <c r="B339" s="9" t="s">
+      <c r="B339" t="s">
         <v>1049</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A340" s="10" t="s">
+      <c r="A340" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="B340" s="9" t="s">
+      <c r="B340" t="s">
         <v>690</v>
       </c>
     </row>
@@ -7954,34 +8307,34 @@
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A342" s="10" t="s">
+      <c r="A342" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="B342" s="9" t="s">
+      <c r="B342" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A343" s="10" t="s">
+      <c r="A343" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="B343" s="9" t="s">
+      <c r="B343" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A344" s="10" t="s">
+      <c r="A344" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="B344" s="9" t="s">
+      <c r="B344" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A345" s="10" t="s">
+      <c r="A345" s="2" t="s">
         <v>1227</v>
       </c>
-      <c r="B345" s="9" t="s">
+      <c r="B345" t="s">
         <v>585</v>
       </c>
     </row>
@@ -7994,10 +8347,10 @@
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A347" s="10" t="s">
+      <c r="A347" s="2" t="s">
         <v>1272</v>
       </c>
-      <c r="B347" s="9" t="s">
+      <c r="B347" t="s">
         <v>694</v>
       </c>
     </row>
@@ -8010,117 +8363,117 @@
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A349" s="10" t="s">
+      <c r="A349" s="2" t="s">
         <v>1273</v>
       </c>
-      <c r="B349" s="9" t="s">
+      <c r="B349" t="s">
         <v>695</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A350" s="10" t="s">
+      <c r="A350" s="2" t="s">
         <v>1203</v>
       </c>
-      <c r="B350" s="9" t="s">
+      <c r="B350" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A351" s="10" t="s">
+      <c r="A351" s="2" t="s">
         <v>1278</v>
       </c>
-      <c r="B351" s="9" t="s">
+      <c r="B351" t="s">
         <v>701</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A352" s="10" t="s">
+      <c r="A352" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="B352" s="9" t="s">
+      <c r="B352" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A353" s="10" t="s">
+      <c r="A353" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="B353" s="9" t="s">
+      <c r="B353" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A354" s="10" t="s">
+      <c r="A354" s="2" t="s">
         <v>1279</v>
       </c>
-      <c r="B354" s="9" t="s">
+      <c r="B354" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A355" s="10" t="s">
+      <c r="A355" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="B355" s="9" t="s">
+      <c r="B355" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A356" s="10" t="s">
+      <c r="A356" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="B356" s="9" t="s">
+      <c r="B356" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A357" s="10" t="s">
+      <c r="A357" s="2" t="s">
         <v>1261</v>
       </c>
-      <c r="B357" s="9" t="s">
+      <c r="B357" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A358" s="10" t="s">
+      <c r="A358" s="2" t="s">
         <v>1348</v>
       </c>
-      <c r="B358" s="9" t="s">
+      <c r="B358" t="s">
         <v>866</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A359" s="10" t="s">
+      <c r="A359" s="2" t="s">
         <v>707</v>
       </c>
-      <c r="B359" s="9" t="s">
+      <c r="B359" t="s">
         <v>707</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A360" s="10" t="s">
+      <c r="A360" s="2" t="s">
         <v>1280</v>
       </c>
-      <c r="B360" s="9" t="s">
+      <c r="B360" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A361" s="10" t="s">
+      <c r="A361" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="B361" s="9" t="s">
+      <c r="B361" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A362" s="10" t="s">
+      <c r="A362" s="2" t="s">
         <v>710</v>
       </c>
-      <c r="B362" s="9" t="s">
+      <c r="B362" t="s">
         <v>710</v>
       </c>
-      <c r="C362" s="9" t="s">
+      <c r="C362" t="s">
         <v>780</v>
       </c>
     </row>
@@ -8133,10 +8486,10 @@
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A364" s="10" t="s">
+      <c r="A364" s="2" t="s">
         <v>1318</v>
       </c>
-      <c r="B364" s="9" t="s">
+      <c r="B364" t="s">
         <v>797</v>
       </c>
     </row>
@@ -8149,293 +8502,293 @@
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A366" s="10" t="s">
+      <c r="A366" s="2" t="s">
         <v>1363</v>
       </c>
-      <c r="B366" s="9" t="s">
+      <c r="B366" t="s">
         <v>901</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A367" s="10" t="s">
+      <c r="A367" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="B367" s="9" t="s">
+      <c r="B367" t="s">
         <v>713</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A368" s="10" t="s">
+      <c r="A368" s="2" t="s">
         <v>1364</v>
       </c>
-      <c r="B368" s="9" t="s">
+      <c r="B368" t="s">
         <v>902</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A369" s="10" t="s">
+      <c r="A369" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="B369" s="9" t="s">
+      <c r="B369" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A370" s="10" t="s">
+      <c r="A370" s="2" t="s">
         <v>1285</v>
       </c>
-      <c r="B370" s="9" t="s">
+      <c r="B370" t="s">
         <v>717</v>
       </c>
-      <c r="C370" s="9" t="s">
+      <c r="C370" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A371" s="10" t="s">
+      <c r="A371" s="2" t="s">
         <v>1391</v>
       </c>
-      <c r="B371" s="9" t="s">
+      <c r="B371" t="s">
         <v>981</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A372" s="10" t="s">
+      <c r="A372" s="2" t="s">
         <v>720</v>
       </c>
-      <c r="B372" s="9" t="s">
+      <c r="B372" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A373" s="10" t="s">
+      <c r="A373" s="2" t="s">
         <v>721</v>
       </c>
-      <c r="B373" s="9" t="s">
+      <c r="B373" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A374" s="10" t="s">
+      <c r="A374" s="2" t="s">
         <v>1287</v>
       </c>
-      <c r="B374" s="9" t="s">
+      <c r="B374" t="s">
         <v>722</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A375" s="10" t="s">
+      <c r="A375" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="B375" s="9" t="s">
+      <c r="B375" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A376" s="10" t="s">
+      <c r="A376" s="2" t="s">
         <v>1410</v>
       </c>
-      <c r="B376" s="9" t="s">
+      <c r="B376" t="s">
         <v>982</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A377" s="10" t="s">
+      <c r="A377" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="B377" s="9" t="s">
+      <c r="B377" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A378" s="10" t="s">
+      <c r="A378" s="2" t="s">
         <v>726</v>
       </c>
-      <c r="B378" s="9" t="s">
+      <c r="B378" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A379" s="10" t="s">
+      <c r="A379" s="2" t="s">
         <v>1290</v>
       </c>
-      <c r="B379" s="9" t="s">
+      <c r="B379" t="s">
         <v>728</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A380" s="10" t="s">
+      <c r="A380" s="2" t="s">
         <v>729</v>
       </c>
-      <c r="B380" s="9" t="s">
+      <c r="B380" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A381" s="10" t="s">
+      <c r="A381" s="2" t="s">
         <v>738</v>
       </c>
-      <c r="B381" s="9" t="s">
+      <c r="B381" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A382" s="10" t="s">
+      <c r="A382" s="2" t="s">
         <v>730</v>
       </c>
-      <c r="B382" s="9" t="s">
+      <c r="B382" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A383" s="10" t="s">
+      <c r="A383" s="2" t="s">
         <v>1292</v>
       </c>
-      <c r="B383" s="9" t="s">
+      <c r="B383" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A384" s="10" t="s">
+      <c r="A384" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="B384" s="9" t="s">
+      <c r="B384" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A385" s="10" t="s">
+      <c r="A385" s="2" t="s">
         <v>739</v>
       </c>
-      <c r="B385" s="9" t="s">
+      <c r="B385" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A386" s="10" t="s">
+      <c r="A386" s="2" t="s">
         <v>1293</v>
       </c>
-      <c r="B386" s="9" t="s">
+      <c r="B386" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A387" s="10" t="s">
+      <c r="A387" s="2" t="s">
         <v>736</v>
       </c>
-      <c r="B387" s="9" t="s">
+      <c r="B387" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A388" s="10" t="s">
+      <c r="A388" s="2" t="s">
         <v>737</v>
       </c>
-      <c r="B388" s="9" t="s">
+      <c r="B388" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A389" s="10" t="s">
+      <c r="A389" s="2" t="s">
         <v>796</v>
       </c>
-      <c r="B389" s="9" t="s">
+      <c r="B389" t="s">
         <v>796</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A390" s="10" t="s">
+      <c r="A390" s="2" t="s">
         <v>753</v>
       </c>
-      <c r="B390" s="9" t="s">
+      <c r="B390" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A391" s="10" t="s">
+      <c r="A391" s="2" t="s">
         <v>754</v>
       </c>
-      <c r="B391" s="9" t="s">
+      <c r="B391" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A392" s="10" t="s">
+      <c r="A392" s="2" t="s">
         <v>1349</v>
       </c>
-      <c r="B392" s="9" t="s">
+      <c r="B392" t="s">
         <v>867</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A393" s="10" t="s">
+      <c r="A393" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="B393" s="9" t="s">
+      <c r="B393" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A394" s="10" t="s">
+      <c r="A394" s="2" t="s">
         <v>756</v>
       </c>
-      <c r="B394" s="9" t="s">
+      <c r="B394" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A395" s="10" t="s">
+      <c r="A395" s="2" t="s">
         <v>757</v>
       </c>
-      <c r="B395" s="9" t="s">
+      <c r="B395" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A396" s="10" t="s">
+      <c r="A396" s="2" t="s">
         <v>1365</v>
       </c>
-      <c r="B396" s="9" t="s">
+      <c r="B396" t="s">
         <v>903</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A397" s="10" t="s">
+      <c r="A397" s="2" t="s">
         <v>758</v>
       </c>
-      <c r="B397" s="9" t="s">
+      <c r="B397" t="s">
         <v>758</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A398" s="10" t="s">
+      <c r="A398" s="2" t="s">
         <v>1246</v>
       </c>
-      <c r="B398" s="9" t="s">
+      <c r="B398" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A399" s="10" t="s">
+      <c r="A399" s="2" t="s">
         <v>759</v>
       </c>
-      <c r="B399" s="9" t="s">
+      <c r="B399" t="s">
         <v>759</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A400" s="10" t="s">
+      <c r="A400" s="2" t="s">
         <v>1251</v>
       </c>
-      <c r="B400" s="9" t="s">
+      <c r="B400" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A401" s="10" t="s">
+      <c r="A401" s="2" t="s">
         <v>760</v>
       </c>
-      <c r="B401" s="9" t="s">
+      <c r="B401" t="s">
         <v>760</v>
       </c>
     </row>
@@ -8456,10 +8809,10 @@
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A404" s="10" t="s">
+      <c r="A404" s="2" t="s">
         <v>1338</v>
       </c>
-      <c r="B404" s="9" t="s">
+      <c r="B404" t="s">
         <v>839</v>
       </c>
     </row>
@@ -8480,106 +8833,106 @@
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A407" s="10" t="s">
+      <c r="A407" s="2" t="s">
         <v>761</v>
       </c>
-      <c r="B407" s="9" t="s">
+      <c r="B407" t="s">
         <v>761</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A408" s="10" t="s">
+      <c r="A408" s="2" t="s">
         <v>1138</v>
       </c>
-      <c r="B408" s="9" t="s">
+      <c r="B408" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A409" s="10" t="s">
+      <c r="A409" s="2" t="s">
         <v>763</v>
       </c>
-      <c r="B409" s="9" t="s">
+      <c r="B409" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A410" s="10" t="s">
+      <c r="A410" s="2" t="s">
         <v>764</v>
       </c>
-      <c r="B410" s="9" t="s">
+      <c r="B410" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A411" s="10" t="s">
+      <c r="A411" s="2" t="s">
         <v>1307</v>
       </c>
-      <c r="B411" s="9" t="s">
+      <c r="B411" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A412" s="10" t="s">
+      <c r="A412" s="2" t="s">
         <v>766</v>
       </c>
-      <c r="B412" s="9" t="s">
+      <c r="B412" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A413" s="10" t="s">
+      <c r="A413" s="2" t="s">
         <v>1309</v>
       </c>
-      <c r="B413" s="9" t="s">
+      <c r="B413" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A414" s="10" t="s">
+      <c r="A414" s="2" t="s">
         <v>1310</v>
       </c>
-      <c r="B414" s="9" t="s">
+      <c r="B414" t="s">
         <v>769</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A415" s="10" t="s">
+      <c r="A415" s="2" t="s">
         <v>770</v>
       </c>
-      <c r="B415" s="9" t="s">
+      <c r="B415" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A416" s="10" t="s">
+      <c r="A416" s="2" t="s">
         <v>771</v>
       </c>
-      <c r="B416" s="9" t="s">
+      <c r="B416" t="s">
         <v>771</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A417" s="10" t="s">
+      <c r="A417" s="2" t="s">
         <v>772</v>
       </c>
-      <c r="B417" s="9" t="s">
+      <c r="B417" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A418" s="10" t="s">
+      <c r="A418" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="B418" s="9" t="s">
+      <c r="B418" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A419" s="10" t="s">
+      <c r="A419" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="B419" s="9" t="s">
+      <c r="B419" t="s">
         <v>774</v>
       </c>
     </row>
@@ -8592,290 +8945,290 @@
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A421" s="10" t="s">
+      <c r="A421" s="2" t="s">
         <v>777</v>
       </c>
-      <c r="B421" s="9" t="s">
+      <c r="B421" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A422" s="10" t="s">
+      <c r="A422" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="B422" s="9" t="s">
+      <c r="B422" t="s">
         <v>778</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A423" s="10" t="s">
+      <c r="A423" s="2" t="s">
         <v>779</v>
       </c>
-      <c r="B423" s="9" t="s">
+      <c r="B423" t="s">
         <v>779</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A424" s="10" t="s">
+      <c r="A424" s="2" t="s">
         <v>781</v>
       </c>
-      <c r="B424" s="9" t="s">
+      <c r="B424" t="s">
         <v>781</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A425" s="10" t="s">
+      <c r="A425" s="2" t="s">
         <v>782</v>
       </c>
-      <c r="B425" s="9" t="s">
+      <c r="B425" t="s">
         <v>782</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A426" s="10" t="s">
+      <c r="A426" s="2" t="s">
         <v>783</v>
       </c>
-      <c r="B426" s="9" t="s">
+      <c r="B426" t="s">
         <v>783</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A427" s="10" t="s">
+      <c r="A427" s="2" t="s">
         <v>1243</v>
       </c>
-      <c r="B427" s="9" t="s">
+      <c r="B427" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A428" s="10" t="s">
+      <c r="A428" s="2" t="s">
         <v>1313</v>
       </c>
-      <c r="B428" s="9" t="s">
+      <c r="B428" t="s">
         <v>784</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A429" s="10" t="s">
+      <c r="A429" s="2" t="s">
         <v>1314</v>
       </c>
-      <c r="B429" s="9" t="s">
+      <c r="B429" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A430" s="10" t="s">
+      <c r="A430" s="2" t="s">
         <v>785</v>
       </c>
-      <c r="B430" s="9" t="s">
+      <c r="B430" t="s">
         <v>785</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A431" s="10" t="s">
+      <c r="A431" s="2" t="s">
         <v>787</v>
       </c>
-      <c r="B431" s="9" t="s">
+      <c r="B431" t="s">
         <v>787</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A432" s="10" t="s">
+      <c r="A432" s="2" t="s">
         <v>1262</v>
       </c>
-      <c r="B432" s="9" t="s">
+      <c r="B432" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A433" s="10" t="s">
+      <c r="A433" s="2" t="s">
         <v>788</v>
       </c>
-      <c r="B433" s="9" t="s">
+      <c r="B433" t="s">
         <v>788</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A434" s="10" t="s">
+      <c r="A434" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="B434" s="9" t="s">
+      <c r="B434" t="s">
         <v>789</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A435" s="10" t="s">
+      <c r="A435" s="2" t="s">
         <v>1315</v>
       </c>
-      <c r="B435" s="9" t="s">
+      <c r="B435" t="s">
         <v>790</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A436" s="10" t="s">
+      <c r="A436" s="2" t="s">
         <v>1219</v>
       </c>
-      <c r="B436" s="9" t="s">
+      <c r="B436" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A437" s="10" t="s">
+      <c r="A437" s="2" t="s">
         <v>1316</v>
       </c>
-      <c r="B437" s="9" t="s">
+      <c r="B437" t="s">
         <v>791</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A438" s="10" t="s">
+      <c r="A438" s="2" t="s">
         <v>1317</v>
       </c>
-      <c r="B438" s="9" t="s">
+      <c r="B438" t="s">
         <v>792</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A439" s="10" t="s">
+      <c r="A439" s="2" t="s">
         <v>793</v>
       </c>
-      <c r="B439" s="9" t="s">
+      <c r="B439" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A440" s="10" t="s">
+      <c r="A440" s="2" t="s">
         <v>1270</v>
       </c>
-      <c r="B440" s="9" t="s">
+      <c r="B440" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A441" s="10" t="s">
+      <c r="A441" s="2" t="s">
         <v>794</v>
       </c>
-      <c r="B441" s="9" t="s">
+      <c r="B441" t="s">
         <v>794</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A442" s="10" t="s">
+      <c r="A442" s="2" t="s">
         <v>1300</v>
       </c>
-      <c r="B442" s="9" t="s">
+      <c r="B442" t="s">
         <v>745</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A443" s="10" t="s">
+      <c r="A443" s="2" t="s">
         <v>795</v>
       </c>
-      <c r="B443" s="9" t="s">
+      <c r="B443" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A444" s="10" t="s">
+      <c r="A444" s="2" t="s">
         <v>803</v>
       </c>
-      <c r="B444" s="9" t="s">
+      <c r="B444" t="s">
         <v>803</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A445" s="10" t="s">
+      <c r="A445" s="2" t="s">
         <v>804</v>
       </c>
-      <c r="B445" s="9" t="s">
+      <c r="B445" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A446" s="10" t="s">
+      <c r="A446" s="2" t="s">
         <v>1380</v>
       </c>
-      <c r="B446" s="9" t="s">
+      <c r="B446" t="s">
         <v>958</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A447" s="10" t="s">
+      <c r="A447" s="2" t="s">
         <v>1366</v>
       </c>
-      <c r="B447" s="9" t="s">
+      <c r="B447" t="s">
         <v>904</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A448" s="10" t="s">
+      <c r="A448" s="2" t="s">
         <v>805</v>
       </c>
-      <c r="B448" s="9" t="s">
+      <c r="B448" t="s">
         <v>805</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A449" s="10" t="s">
+      <c r="A449" s="2" t="s">
         <v>1334</v>
       </c>
-      <c r="B449" s="9" t="s">
+      <c r="B449" t="s">
         <v>835</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A450" s="10" t="s">
+      <c r="A450" s="2" t="s">
         <v>1324</v>
       </c>
-      <c r="B450" s="9" t="s">
+      <c r="B450" t="s">
         <v>807</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A451" s="10" t="s">
+      <c r="A451" s="2" t="s">
         <v>1323</v>
       </c>
-      <c r="B451" s="9" t="s">
+      <c r="B451" t="s">
         <v>806</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A452" s="10" t="s">
+      <c r="A452" s="2" t="s">
         <v>808</v>
       </c>
-      <c r="B452" s="9" t="s">
+      <c r="B452" t="s">
         <v>808</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A453" s="10" t="s">
+      <c r="A453" s="2" t="s">
         <v>809</v>
       </c>
-      <c r="B453" s="9" t="s">
+      <c r="B453" t="s">
         <v>809</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A454" s="10" t="s">
+      <c r="A454" s="2" t="s">
         <v>812</v>
       </c>
-      <c r="B454" s="9" t="s">
+      <c r="B454" t="s">
         <v>812</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A455" s="10" t="s">
+      <c r="A455" s="2" t="s">
         <v>813</v>
       </c>
-      <c r="B455" s="9" t="s">
+      <c r="B455" t="s">
         <v>813</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A456" s="10" t="s">
+      <c r="A456" s="2" t="s">
         <v>1214</v>
       </c>
-      <c r="B456" s="9" t="s">
+      <c r="B456" t="s">
         <v>526</v>
       </c>
     </row>
@@ -8888,74 +9241,74 @@
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A458" s="10" t="s">
+      <c r="A458" s="2" t="s">
         <v>1204</v>
       </c>
-      <c r="B458" s="9" t="s">
+      <c r="B458" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A459" s="10" t="s">
+      <c r="A459" s="2" t="s">
         <v>1206</v>
       </c>
-      <c r="B459" s="9" t="s">
+      <c r="B459" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A460" s="10" t="s">
+      <c r="A460" s="2" t="s">
         <v>1238</v>
       </c>
-      <c r="B460" s="9" t="s">
+      <c r="B460" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A461" s="10" t="s">
+      <c r="A461" s="2" t="s">
         <v>814</v>
       </c>
-      <c r="B461" s="9" t="s">
+      <c r="B461" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A462" s="10" t="s">
+      <c r="A462" s="2" t="s">
         <v>815</v>
       </c>
-      <c r="B462" s="9" t="s">
+      <c r="B462" t="s">
         <v>815</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A463" s="10" t="s">
+      <c r="A463" s="2" t="s">
         <v>1228</v>
       </c>
-      <c r="B463" s="9" t="s">
+      <c r="B463" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A464" s="10" t="s">
+      <c r="A464" s="2" t="s">
         <v>1209</v>
       </c>
-      <c r="B464" s="9" t="s">
+      <c r="B464" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A465" s="10" t="s">
+      <c r="A465" s="2" t="s">
         <v>818</v>
       </c>
-      <c r="B465" s="9" t="s">
+      <c r="B465" t="s">
         <v>818</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A466" s="10" t="s">
+      <c r="A466" s="2" t="s">
         <v>1244</v>
       </c>
-      <c r="B466" s="9" t="s">
+      <c r="B466" t="s">
         <v>655</v>
       </c>
     </row>
@@ -8968,80 +9321,80 @@
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A468" s="10" t="s">
+      <c r="A468" s="2" t="s">
         <v>819</v>
       </c>
-      <c r="B468" s="9" t="s">
+      <c r="B468" t="s">
         <v>819</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A469" s="10" t="s">
+      <c r="A469" s="2" t="s">
         <v>820</v>
       </c>
-      <c r="B469" s="9" t="s">
+      <c r="B469" t="s">
         <v>820</v>
       </c>
-      <c r="C469" s="9" t="s">
+      <c r="C469" t="s">
         <v>821</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A470" s="10" t="s">
+      <c r="A470" s="2" t="s">
         <v>1371</v>
       </c>
-      <c r="B470" s="9" t="s">
+      <c r="B470" t="s">
         <v>910</v>
       </c>
-      <c r="C470" s="9" t="s">
+      <c r="C470" t="s">
         <v>911</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A471" s="10" t="s">
+      <c r="A471" s="2" t="s">
         <v>1329</v>
       </c>
-      <c r="B471" s="9" t="s">
+      <c r="B471" t="s">
         <v>822</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A472" s="10" t="s">
+      <c r="A472" s="2" t="s">
         <v>1330</v>
       </c>
-      <c r="B472" s="9" t="s">
+      <c r="B472" t="s">
         <v>823</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A473" s="10" t="s">
+      <c r="A473" s="2" t="s">
         <v>1283</v>
       </c>
-      <c r="B473" s="9" t="s">
+      <c r="B473" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A474" s="10" t="s">
+      <c r="A474" s="2" t="s">
         <v>825</v>
       </c>
-      <c r="B474" s="9" t="s">
+      <c r="B474" t="s">
         <v>824</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A475" s="10" t="s">
+      <c r="A475" s="2" t="s">
         <v>825</v>
       </c>
-      <c r="B475" s="9" t="s">
+      <c r="B475" t="s">
         <v>825</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A476" s="10" t="s">
+      <c r="A476" s="2" t="s">
         <v>1331</v>
       </c>
-      <c r="B476" s="9" t="s">
+      <c r="B476" t="s">
         <v>826</v>
       </c>
     </row>
@@ -9054,98 +9407,98 @@
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A478" s="10" t="s">
+      <c r="A478" s="2" t="s">
         <v>829</v>
       </c>
-      <c r="B478" s="9" t="s">
+      <c r="B478" t="s">
         <v>829</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A479" s="10" t="s">
+      <c r="A479" s="2" t="s">
         <v>1332</v>
       </c>
-      <c r="B479" s="9" t="s">
+      <c r="B479" t="s">
         <v>830</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A480" s="10" t="s">
+      <c r="A480" s="2" t="s">
         <v>1256</v>
       </c>
-      <c r="B480" s="9" t="s">
+      <c r="B480" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A481" s="10" t="s">
+      <c r="A481" s="2" t="s">
         <v>1284</v>
       </c>
-      <c r="B481" s="9" t="s">
+      <c r="B481" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A482" s="10" t="s">
+      <c r="A482" s="2" t="s">
         <v>831</v>
       </c>
-      <c r="B482" s="9" t="s">
+      <c r="B482" t="s">
         <v>831</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A483" s="10" t="s">
+      <c r="A483" s="2" t="s">
         <v>832</v>
       </c>
-      <c r="B483" s="9" t="s">
+      <c r="B483" t="s">
         <v>832</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A484" s="10" t="s">
+      <c r="A484" s="2" t="s">
         <v>833</v>
       </c>
-      <c r="B484" s="9" t="s">
+      <c r="B484" t="s">
         <v>833</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A485" s="10" t="s">
+      <c r="A485" s="2" t="s">
         <v>1321</v>
       </c>
-      <c r="B485" s="9" t="s">
+      <c r="B485" t="s">
         <v>800</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A486" s="10" t="s">
+      <c r="A486" s="2" t="s">
         <v>841</v>
       </c>
-      <c r="B486" s="9" t="s">
+      <c r="B486" t="s">
         <v>841</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A487" s="10" t="s">
+      <c r="A487" s="2" t="s">
         <v>1340</v>
       </c>
-      <c r="B487" s="9" t="s">
+      <c r="B487" t="s">
         <v>842</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A488" s="10" t="s">
+      <c r="A488" s="2" t="s">
         <v>1247</v>
       </c>
-      <c r="B488" s="9" t="s">
+      <c r="B488" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A489" s="10" t="s">
+      <c r="A489" s="2" t="s">
         <v>1305</v>
       </c>
-      <c r="B489" s="9" t="s">
+      <c r="B489" t="s">
         <v>751</v>
       </c>
     </row>
@@ -9158,34 +9511,34 @@
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A491" s="10" t="s">
+      <c r="A491" s="2" t="s">
         <v>850</v>
       </c>
-      <c r="B491" s="9" t="s">
+      <c r="B491" t="s">
         <v>850</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A492" s="10" t="s">
+      <c r="A492" s="2" t="s">
         <v>1255</v>
       </c>
-      <c r="B492" s="9" t="s">
+      <c r="B492" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A493" s="10" t="s">
+      <c r="A493" s="2" t="s">
         <v>844</v>
       </c>
-      <c r="B493" s="9" t="s">
+      <c r="B493" t="s">
         <v>844</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A494" s="10" t="s">
+      <c r="A494" s="2" t="s">
         <v>845</v>
       </c>
-      <c r="B494" s="9" t="s">
+      <c r="B494" t="s">
         <v>845</v>
       </c>
     </row>
@@ -9206,272 +9559,272 @@
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A497" s="10" t="s">
+      <c r="A497" s="2" t="s">
         <v>1352</v>
       </c>
-      <c r="B497" s="9" t="s">
+      <c r="B497" t="s">
         <v>870</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A498" s="10" t="s">
+      <c r="A498" s="2" t="s">
         <v>846</v>
       </c>
-      <c r="B498" s="9" t="s">
+      <c r="B498" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A499" s="10" t="s">
+      <c r="A499" s="2" t="s">
         <v>1342</v>
       </c>
-      <c r="B499" s="9" t="s">
+      <c r="B499" t="s">
         <v>847</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A500" s="10" t="s">
+      <c r="A500" s="2" t="s">
         <v>851</v>
       </c>
-      <c r="B500" s="9" t="s">
+      <c r="B500" t="s">
         <v>851</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A501" s="10" t="s">
+      <c r="A501" s="2" t="s">
         <v>1312</v>
       </c>
-      <c r="B501" s="9" t="s">
+      <c r="B501" t="s">
         <v>776</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A502" s="10" t="s">
+      <c r="A502" s="2" t="s">
         <v>852</v>
       </c>
-      <c r="B502" s="9" t="s">
+      <c r="B502" t="s">
         <v>852</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A503" s="10" t="s">
+      <c r="A503" s="2" t="s">
         <v>853</v>
       </c>
-      <c r="B503" s="9" t="s">
+      <c r="B503" t="s">
         <v>853</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A504" s="10" t="s">
+      <c r="A504" s="2" t="s">
         <v>854</v>
       </c>
-      <c r="B504" s="9" t="s">
+      <c r="B504" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A505" s="10" t="s">
+      <c r="A505" s="2" t="s">
         <v>855</v>
       </c>
-      <c r="B505" s="9" t="s">
+      <c r="B505" t="s">
         <v>855</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A506" s="10" t="s">
+      <c r="A506" s="2" t="s">
         <v>1345</v>
       </c>
-      <c r="B506" s="9" t="s">
+      <c r="B506" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A507" s="10" t="s">
+      <c r="A507" s="2" t="s">
         <v>857</v>
       </c>
-      <c r="B507" s="9" t="s">
+      <c r="B507" t="s">
         <v>857</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A508" s="10" t="s">
+      <c r="A508" s="2" t="s">
         <v>858</v>
       </c>
-      <c r="B508" s="9" t="s">
+      <c r="B508" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A509" s="10" t="s">
+      <c r="A509" s="2" t="s">
         <v>859</v>
       </c>
-      <c r="B509" s="9" t="s">
+      <c r="B509" t="s">
         <v>802</v>
       </c>
-      <c r="C509" s="9" t="s">
+      <c r="C509" t="s">
         <v>859</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A510" s="10" t="s">
+      <c r="A510" s="2" t="s">
         <v>860</v>
       </c>
-      <c r="B510" s="9" t="s">
+      <c r="B510" t="s">
         <v>860</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A511" s="10" t="s">
+      <c r="A511" s="2" t="s">
         <v>861</v>
       </c>
-      <c r="B511" s="9" t="s">
+      <c r="B511" t="s">
         <v>861</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A512" s="10" t="s">
+      <c r="A512" s="2" t="s">
         <v>862</v>
       </c>
-      <c r="B512" s="9" t="s">
+      <c r="B512" t="s">
         <v>862</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A513" s="10" t="s">
+      <c r="A513" s="2" t="s">
         <v>1346</v>
       </c>
-      <c r="B513" s="9" t="s">
+      <c r="B513" t="s">
         <v>863</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A514" s="10" t="s">
+      <c r="A514" s="2" t="s">
         <v>864</v>
       </c>
-      <c r="B514" s="9" t="s">
+      <c r="B514" t="s">
         <v>864</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A515" s="10" t="s">
+      <c r="A515" s="2" t="s">
         <v>1347</v>
       </c>
-      <c r="B515" s="9" t="s">
+      <c r="B515" t="s">
         <v>865</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A516" s="10" t="s">
+      <c r="A516" s="2" t="s">
         <v>871</v>
       </c>
-      <c r="B516" s="9" t="s">
+      <c r="B516" t="s">
         <v>871</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A517" s="10" t="s">
+      <c r="A517" s="2" t="s">
         <v>1351</v>
       </c>
-      <c r="B517" s="9" t="s">
+      <c r="B517" t="s">
         <v>869</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A518" s="10" t="s">
+      <c r="A518" s="2" t="s">
         <v>1253</v>
       </c>
-      <c r="B518" s="9" t="s">
+      <c r="B518" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A519" s="10" t="s">
+      <c r="A519" s="2" t="s">
         <v>872</v>
       </c>
-      <c r="B519" s="9" t="s">
+      <c r="B519" t="s">
         <v>872</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A520" s="10" t="s">
+      <c r="A520" s="2" t="s">
         <v>873</v>
       </c>
-      <c r="B520" s="9" t="s">
+      <c r="B520" t="s">
         <v>873</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A521" s="10" t="s">
+      <c r="A521" s="2" t="s">
         <v>1353</v>
       </c>
-      <c r="B521" s="9" t="s">
+      <c r="B521" t="s">
         <v>874</v>
       </c>
-      <c r="C521" s="9" t="s">
+      <c r="C521" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A522" s="10" t="s">
+      <c r="A522" s="2" t="s">
         <v>1282</v>
       </c>
-      <c r="B522" s="9" t="s">
+      <c r="B522" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A523" s="10" t="s">
+      <c r="A523" s="2" t="s">
         <v>875</v>
       </c>
-      <c r="B523" s="9" t="s">
+      <c r="B523" t="s">
         <v>875</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A524" s="10" t="s">
+      <c r="A524" s="2" t="s">
         <v>877</v>
       </c>
-      <c r="B524" s="9" t="s">
+      <c r="B524" t="s">
         <v>877</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A525" s="10" t="s">
+      <c r="A525" s="2" t="s">
         <v>1355</v>
       </c>
-      <c r="B525" s="9" t="s">
+      <c r="B525" t="s">
         <v>878</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A526" s="10" t="s">
+      <c r="A526" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="B526" s="9" t="s">
+      <c r="B526" t="s">
         <v>879</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A527" s="10" t="s">
+      <c r="A527" s="2" t="s">
         <v>880</v>
       </c>
-      <c r="B527" s="9" t="s">
+      <c r="B527" t="s">
         <v>880</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A528" s="10" t="s">
+      <c r="A528" s="2" t="s">
         <v>1369</v>
       </c>
-      <c r="B528" s="9" t="s">
+      <c r="B528" t="s">
         <v>908</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A529" s="10" t="s">
+      <c r="A529" s="2" t="s">
         <v>881</v>
       </c>
-      <c r="B529" s="9" t="s">
+      <c r="B529" t="s">
         <v>881</v>
       </c>
     </row>
@@ -9484,34 +9837,34 @@
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A531" s="10" t="s">
+      <c r="A531" s="2" t="s">
         <v>1356</v>
       </c>
-      <c r="B531" s="9" t="s">
+      <c r="B531" t="s">
         <v>882</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A532" s="10" t="s">
+      <c r="A532" s="2" t="s">
         <v>883</v>
       </c>
-      <c r="B532" s="9" t="s">
+      <c r="B532" t="s">
         <v>883</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A533" s="10" t="s">
+      <c r="A533" s="2" t="s">
         <v>884</v>
       </c>
-      <c r="B533" s="9" t="s">
+      <c r="B533" t="s">
         <v>884</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A534" s="10" t="s">
+      <c r="A534" s="2" t="s">
         <v>1139</v>
       </c>
-      <c r="B534" s="9" t="s">
+      <c r="B534" t="s">
         <v>893</v>
       </c>
     </row>
@@ -9524,26 +9877,26 @@
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A536" s="10" t="s">
+      <c r="A536" s="2" t="s">
         <v>885</v>
       </c>
-      <c r="B536" s="9" t="s">
+      <c r="B536" t="s">
         <v>885</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A537" s="10" t="s">
+      <c r="A537" s="2" t="s">
         <v>886</v>
       </c>
-      <c r="B537" s="9" t="s">
+      <c r="B537" t="s">
         <v>886</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A538" s="10" t="s">
+      <c r="A538" s="2" t="s">
         <v>887</v>
       </c>
-      <c r="B538" s="9" t="s">
+      <c r="B538" t="s">
         <v>887</v>
       </c>
     </row>
@@ -9556,50 +9909,50 @@
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A540" s="10" t="s">
+      <c r="A540" s="2" t="s">
         <v>1259</v>
       </c>
-      <c r="B540" s="9" t="s">
+      <c r="B540" t="s">
         <v>673</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A541" s="10" t="s">
+      <c r="A541" s="2" t="s">
         <v>888</v>
       </c>
-      <c r="B541" s="9" t="s">
+      <c r="B541" t="s">
         <v>888</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A542" s="10" t="s">
+      <c r="A542" s="2" t="s">
         <v>890</v>
       </c>
-      <c r="B542" s="9" t="s">
+      <c r="B542" t="s">
         <v>890</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A543" s="10" t="s">
+      <c r="A543" s="2" t="s">
         <v>1306</v>
       </c>
-      <c r="B543" s="9" t="s">
+      <c r="B543" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A544" s="10" t="s">
+      <c r="A544" s="2" t="s">
         <v>1207</v>
       </c>
-      <c r="B544" s="9" t="s">
+      <c r="B544" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A545" s="10" t="s">
+      <c r="A545" s="2" t="s">
         <v>1291</v>
       </c>
-      <c r="B545" s="9" t="s">
+      <c r="B545" t="s">
         <v>731</v>
       </c>
     </row>
@@ -9620,317 +9973,317 @@
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A548" s="10" t="s">
+      <c r="A548" s="2" t="s">
         <v>892</v>
       </c>
-      <c r="B548" s="9" t="s">
+      <c r="B548" t="s">
         <v>892</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A549" s="10" t="s">
+      <c r="A549" s="2" t="s">
         <v>1388</v>
       </c>
-      <c r="B549" s="9" t="s">
+      <c r="B549" t="s">
         <v>969</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A550" s="10" t="s">
+      <c r="A550" s="2" t="s">
         <v>912</v>
       </c>
-      <c r="B550" s="9" t="s">
+      <c r="B550" t="s">
         <v>912</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A551" s="10" t="s">
+      <c r="A551" s="2" t="s">
         <v>913</v>
       </c>
-      <c r="B551" s="9" t="s">
+      <c r="B551" t="s">
         <v>913</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A552" s="10" t="s">
+      <c r="A552" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="B552" s="9" t="s">
+      <c r="B552" t="s">
         <v>914</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A553" s="10" t="s">
+      <c r="A553" s="2" t="s">
         <v>915</v>
       </c>
-      <c r="B553" s="9" t="s">
+      <c r="B553" t="s">
         <v>915</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A554" s="10" t="s">
+      <c r="A554" s="2" t="s">
         <v>916</v>
       </c>
-      <c r="B554" s="9" t="s">
+      <c r="B554" t="s">
         <v>916</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A555" s="10" t="s">
+      <c r="A555" s="2" t="s">
         <v>917</v>
       </c>
-      <c r="B555" s="9" t="s">
+      <c r="B555" t="s">
         <v>917</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A556" s="10" t="s">
+      <c r="A556" s="2" t="s">
         <v>1249</v>
       </c>
-      <c r="B556" s="9" t="s">
+      <c r="B556" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A557" s="10" t="s">
+      <c r="A557" s="2" t="s">
         <v>1341</v>
       </c>
-      <c r="B557" s="9" t="s">
+      <c r="B557" t="s">
         <v>843</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A558" s="10" t="s">
+      <c r="A558" s="2" t="s">
         <v>918</v>
       </c>
-      <c r="B558" s="9" t="s">
+      <c r="B558" t="s">
         <v>918</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A559" s="10" t="s">
+      <c r="A559" s="2" t="s">
         <v>1327</v>
       </c>
-      <c r="B559" s="9" t="s">
+      <c r="B559" t="s">
         <v>816</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A560" s="10" t="s">
+      <c r="A560" s="2" t="s">
         <v>1248</v>
       </c>
-      <c r="B560" s="9" t="s">
+      <c r="B560" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A561" s="10" t="s">
+      <c r="A561" s="2" t="s">
         <v>919</v>
       </c>
-      <c r="B561" s="9" t="s">
+      <c r="B561" t="s">
         <v>919</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A562" s="10" t="s">
+      <c r="A562" s="2" t="s">
         <v>1216</v>
       </c>
-      <c r="B562" s="9" t="s">
+      <c r="B562" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A563" s="10" t="s">
+      <c r="A563" s="2" t="s">
         <v>1376</v>
       </c>
-      <c r="B563" s="9" t="s">
+      <c r="B563" t="s">
         <v>946</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A564" s="10" t="s">
+      <c r="A564" s="2" t="s">
         <v>920</v>
       </c>
-      <c r="B564" s="9" t="s">
+      <c r="B564" t="s">
         <v>920</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A565" s="10" t="s">
+      <c r="A565" s="2" t="s">
         <v>1319</v>
       </c>
-      <c r="B565" s="9" t="s">
+      <c r="B565" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A566" s="10" t="s">
+      <c r="A566" s="2" t="s">
         <v>1335</v>
       </c>
-      <c r="B566" s="9" t="s">
+      <c r="B566" t="s">
         <v>836</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A567" s="10" t="s">
+      <c r="A567" s="2" t="s">
         <v>1336</v>
       </c>
-      <c r="B567" s="9" t="s">
+      <c r="B567" t="s">
         <v>837</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A568" s="10" t="s">
+      <c r="A568" s="2" t="s">
         <v>921</v>
       </c>
-      <c r="B568" s="9" t="s">
+      <c r="B568" t="s">
         <v>921</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A569" s="10" t="s">
+      <c r="A569" s="2" t="s">
         <v>922</v>
       </c>
-      <c r="B569" s="9" t="s">
+      <c r="B569" t="s">
         <v>922</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A570" s="10" t="s">
+      <c r="A570" s="2" t="s">
         <v>923</v>
       </c>
-      <c r="B570" s="9" t="s">
+      <c r="B570" t="s">
         <v>923</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A571" s="10" t="s">
+      <c r="A571" s="2" t="s">
         <v>1350</v>
       </c>
-      <c r="B571" s="9" t="s">
+      <c r="B571" t="s">
         <v>868</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A572" s="10" t="s">
+      <c r="A572" s="2" t="s">
         <v>1343</v>
       </c>
-      <c r="B572" s="9" t="s">
+      <c r="B572" t="s">
         <v>848</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A573" s="10" t="s">
+      <c r="A573" s="2" t="s">
         <v>1385</v>
       </c>
-      <c r="B573" s="9" t="s">
+      <c r="B573" t="s">
         <v>966</v>
       </c>
-      <c r="C573" s="9" t="s">
+      <c r="C573" t="s">
         <v>971</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A574" s="10" t="s">
+      <c r="A574" s="2" t="s">
         <v>924</v>
       </c>
-      <c r="B574" s="9" t="s">
+      <c r="B574" t="s">
         <v>924</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A575" s="10" t="s">
+      <c r="A575" s="2" t="s">
         <v>925</v>
       </c>
-      <c r="B575" s="9" t="s">
+      <c r="B575" t="s">
         <v>925</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A576" s="10" t="s">
+      <c r="A576" s="2" t="s">
         <v>1372</v>
       </c>
-      <c r="B576" s="9" t="s">
+      <c r="B576" t="s">
         <v>926</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A577" s="10" t="s">
+      <c r="A577" s="2" t="s">
         <v>1328</v>
       </c>
-      <c r="B577" s="9" t="s">
+      <c r="B577" t="s">
         <v>817</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A578" s="10" t="s">
+      <c r="A578" s="2" t="s">
         <v>927</v>
       </c>
-      <c r="B578" s="9" t="s">
+      <c r="B578" t="s">
         <v>927</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A579" s="10" t="s">
+      <c r="A579" s="2" t="s">
         <v>1394</v>
       </c>
-      <c r="B579" s="9" t="s">
+      <c r="B579" t="s">
         <v>995</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A580" s="10" t="s">
+      <c r="A580" s="2" t="s">
         <v>1386</v>
       </c>
-      <c r="B580" s="9" t="s">
+      <c r="B580" t="s">
         <v>967</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A581" s="10" t="s">
+      <c r="A581" s="2" t="s">
         <v>928</v>
       </c>
-      <c r="B581" s="9" t="s">
+      <c r="B581" t="s">
         <v>928</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A582" s="10" t="s">
+      <c r="A582" s="2" t="s">
         <v>1354</v>
       </c>
-      <c r="B582" s="9" t="s">
+      <c r="B582" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A583" s="10" t="s">
+      <c r="A583" s="2" t="s">
         <v>1233</v>
       </c>
-      <c r="B583" s="9" t="s">
+      <c r="B583" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A584" s="10" t="s">
+      <c r="A584" s="2" t="s">
         <v>929</v>
       </c>
-      <c r="B584" s="9" t="s">
+      <c r="B584" t="s">
         <v>929</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A585" s="10" t="s">
+      <c r="A585" s="2" t="s">
         <v>930</v>
       </c>
-      <c r="B585" s="9" t="s">
+      <c r="B585" t="s">
         <v>930</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A586" s="10" t="s">
+      <c r="A586" s="2" t="s">
         <v>931</v>
       </c>
-      <c r="B586" s="9" t="s">
+      <c r="B586" t="s">
         <v>931</v>
       </c>
       <c r="C586" t="s">
@@ -9946,10 +10299,10 @@
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A588" s="10" t="s">
+      <c r="A588" s="2" t="s">
         <v>932</v>
       </c>
-      <c r="B588" s="9" t="s">
+      <c r="B588" t="s">
         <v>932</v>
       </c>
     </row>
@@ -9962,106 +10315,106 @@
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A590" s="10" t="s">
+      <c r="A590" s="2" t="s">
         <v>1325</v>
       </c>
-      <c r="B590" s="9" t="s">
+      <c r="B590" t="s">
         <v>810</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A591" s="10" t="s">
+      <c r="A591" s="2" t="s">
         <v>934</v>
       </c>
-      <c r="B591" s="9" t="s">
+      <c r="B591" t="s">
         <v>934</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A592" s="10" t="s">
+      <c r="A592" s="2" t="s">
         <v>935</v>
       </c>
-      <c r="B592" s="9" t="s">
+      <c r="B592" t="s">
         <v>935</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A593" s="10" t="s">
+      <c r="A593" s="2" t="s">
         <v>937</v>
       </c>
-      <c r="B593" s="9" t="s">
+      <c r="B593" t="s">
         <v>937</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A594" s="10" t="s">
+      <c r="A594" s="2" t="s">
         <v>938</v>
       </c>
-      <c r="B594" s="9" t="s">
+      <c r="B594" t="s">
         <v>938</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A595" s="10" t="s">
+      <c r="A595" s="2" t="s">
         <v>1367</v>
       </c>
-      <c r="B595" s="9" t="s">
+      <c r="B595" t="s">
         <v>905</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A596" s="10" t="s">
+      <c r="A596" s="2" t="s">
         <v>939</v>
       </c>
-      <c r="B596" s="9" t="s">
+      <c r="B596" t="s">
         <v>939</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A597" s="10" t="s">
+      <c r="A597" s="2" t="s">
         <v>1399</v>
       </c>
-      <c r="B597" s="9" t="s">
+      <c r="B597" t="s">
         <v>1044</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A598" s="10" t="s">
+      <c r="A598" s="2" t="s">
         <v>940</v>
       </c>
-      <c r="B598" s="9" t="s">
+      <c r="B598" t="s">
         <v>940</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A599" s="10" t="s">
+      <c r="A599" s="2" t="s">
         <v>941</v>
       </c>
-      <c r="B599" s="9" t="s">
+      <c r="B599" t="s">
         <v>941</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A600" s="10" t="s">
+      <c r="A600" s="2" t="s">
         <v>943</v>
       </c>
-      <c r="B600" s="9" t="s">
+      <c r="B600" t="s">
         <v>943</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A601" s="10" t="s">
+      <c r="A601" s="2" t="s">
         <v>1235</v>
       </c>
-      <c r="B601" s="9" t="s">
+      <c r="B601" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A602" s="10" t="s">
+      <c r="A602" s="2" t="s">
         <v>944</v>
       </c>
-      <c r="B602" s="9" t="s">
+      <c r="B602" t="s">
         <v>944</v>
       </c>
     </row>
@@ -10074,42 +10427,42 @@
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A604" s="10" t="s">
+      <c r="A604" s="2" t="s">
         <v>945</v>
       </c>
-      <c r="B604" s="9" t="s">
+      <c r="B604" t="s">
         <v>945</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A605" s="10" t="s">
+      <c r="A605" s="2" t="s">
         <v>947</v>
       </c>
-      <c r="B605" s="9" t="s">
+      <c r="B605" t="s">
         <v>947</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A606" s="10" t="s">
+      <c r="A606" s="2" t="s">
         <v>1377</v>
       </c>
-      <c r="B606" s="9" t="s">
+      <c r="B606" t="s">
         <v>948</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A607" s="10" t="s">
+      <c r="A607" s="2" t="s">
         <v>949</v>
       </c>
-      <c r="B607" s="9" t="s">
+      <c r="B607" t="s">
         <v>949</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A608" s="10" t="s">
+      <c r="A608" s="2" t="s">
         <v>950</v>
       </c>
-      <c r="B608" s="9" t="s">
+      <c r="B608" t="s">
         <v>950</v>
       </c>
     </row>
@@ -10122,42 +10475,42 @@
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A610" s="10" t="s">
+      <c r="A610" s="2" t="s">
         <v>1387</v>
       </c>
-      <c r="B610" s="9" t="s">
+      <c r="B610" t="s">
         <v>968</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A611" s="10" t="s">
+      <c r="A611" s="2" t="s">
         <v>955</v>
       </c>
-      <c r="B611" s="9" t="s">
+      <c r="B611" t="s">
         <v>955</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A612" s="10" t="s">
+      <c r="A612" s="2" t="s">
         <v>952</v>
       </c>
-      <c r="B612" s="9" t="s">
+      <c r="B612" t="s">
         <v>952</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A613" s="10" t="s">
+      <c r="A613" s="2" t="s">
         <v>1208</v>
       </c>
-      <c r="B613" s="9" t="s">
+      <c r="B613" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A614" s="10" t="s">
+      <c r="A614" s="2" t="s">
         <v>953</v>
       </c>
-      <c r="B614" s="9" t="s">
+      <c r="B614" t="s">
         <v>953</v>
       </c>
     </row>
@@ -10170,277 +10523,277 @@
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A616" s="10" t="s">
+      <c r="A616" s="2" t="s">
         <v>954</v>
       </c>
-      <c r="B616" s="9" t="s">
+      <c r="B616" t="s">
         <v>954</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A617" s="10" t="s">
+      <c r="A617" s="2" t="s">
         <v>1239</v>
       </c>
-      <c r="B617" s="9" t="s">
+      <c r="B617" t="s">
         <v>621</v>
       </c>
-      <c r="C617" s="9" t="s">
+      <c r="C617" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A618" s="10" t="s">
+      <c r="A618" s="2" t="s">
         <v>1379</v>
       </c>
-      <c r="B618" s="9" t="s">
+      <c r="B618" t="s">
         <v>956</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A619" s="10" t="s">
+      <c r="A619" s="2" t="s">
         <v>957</v>
       </c>
-      <c r="B619" s="9" t="s">
+      <c r="B619" t="s">
         <v>957</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A620" s="10" t="s">
+      <c r="A620" s="2" t="s">
         <v>1311</v>
       </c>
-      <c r="B620" s="9" t="s">
+      <c r="B620" t="s">
         <v>775</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A621" s="10" t="s">
+      <c r="A621" s="2" t="s">
         <v>960</v>
       </c>
-      <c r="B621" s="9" t="s">
+      <c r="B621" t="s">
         <v>960</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A622" s="10" t="s">
+      <c r="A622" s="2" t="s">
         <v>961</v>
       </c>
-      <c r="B622" s="9" t="s">
+      <c r="B622" t="s">
         <v>961</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A623" s="10" t="s">
+      <c r="A623" s="2" t="s">
         <v>962</v>
       </c>
-      <c r="B623" s="9" t="s">
+      <c r="B623" t="s">
         <v>962</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A624" s="10" t="s">
+      <c r="A624" s="2" t="s">
         <v>1303</v>
       </c>
-      <c r="B624" s="9" t="s">
+      <c r="B624" t="s">
         <v>748</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A625" s="10" t="s">
+      <c r="A625" s="2" t="s">
         <v>1389</v>
       </c>
-      <c r="B625" s="9" t="s">
+      <c r="B625" t="s">
         <v>970</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A626" s="10" t="s">
+      <c r="A626" s="2" t="s">
         <v>1304</v>
       </c>
-      <c r="B626" s="9" t="s">
+      <c r="B626" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A627" s="10" t="s">
+      <c r="A627" s="2" t="s">
         <v>972</v>
       </c>
-      <c r="B627" s="9" t="s">
+      <c r="B627" t="s">
         <v>972</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A628" s="10" t="s">
+      <c r="A628" s="2" t="s">
         <v>973</v>
       </c>
-      <c r="B628" s="9" t="s">
+      <c r="B628" t="s">
         <v>973</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A629" s="10" t="s">
+      <c r="A629" s="2" t="s">
         <v>974</v>
       </c>
-      <c r="B629" s="9" t="s">
+      <c r="B629" t="s">
         <v>974</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A630" s="10" t="s">
+      <c r="A630" s="2" t="s">
         <v>976</v>
       </c>
-      <c r="B630" s="9" t="s">
+      <c r="B630" t="s">
         <v>976</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A631" s="10" t="s">
+      <c r="A631" s="2" t="s">
         <v>1390</v>
       </c>
-      <c r="B631" s="9" t="s">
+      <c r="B631" t="s">
         <v>975</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A632" s="10" t="s">
+      <c r="A632" s="2" t="s">
         <v>1221</v>
       </c>
-      <c r="B632" s="9" t="s">
+      <c r="B632" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A633" s="10" t="s">
+      <c r="A633" s="2" t="s">
         <v>1222</v>
       </c>
-      <c r="B633" s="9" t="s">
+      <c r="B633" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A634" s="10" t="s">
+      <c r="A634" s="2" t="s">
         <v>977</v>
       </c>
-      <c r="B634" s="9" t="s">
+      <c r="B634" t="s">
         <v>977</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A635" s="10" t="s">
+      <c r="A635" s="2" t="s">
         <v>978</v>
       </c>
-      <c r="B635" s="9" t="s">
+      <c r="B635" t="s">
         <v>978</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A636" s="10" t="s">
+      <c r="A636" s="2" t="s">
         <v>1301</v>
       </c>
-      <c r="B636" s="9" t="s">
+      <c r="B636" t="s">
         <v>746</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A637" s="10" t="s">
+      <c r="A637" s="2" t="s">
         <v>979</v>
       </c>
-      <c r="B637" s="9" t="s">
+      <c r="B637" t="s">
         <v>979</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A638" s="10" t="s">
+      <c r="A638" s="2" t="s">
         <v>980</v>
       </c>
-      <c r="B638" s="9" t="s">
+      <c r="B638" t="s">
         <v>980</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A639" s="10" t="s">
+      <c r="A639" s="2" t="s">
         <v>1145</v>
       </c>
-      <c r="B639" s="9" t="s">
+      <c r="B639" t="s">
         <v>983</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A640" s="10" t="s">
+      <c r="A640" s="2" t="s">
         <v>1392</v>
       </c>
-      <c r="B640" s="9" t="s">
+      <c r="B640" t="s">
         <v>984</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A641" s="10" t="s">
+      <c r="A641" s="2" t="s">
         <v>985</v>
       </c>
-      <c r="B641" s="9" t="s">
+      <c r="B641" t="s">
         <v>985</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A642" s="10" t="s">
+      <c r="A642" s="2" t="s">
         <v>986</v>
       </c>
-      <c r="B642" s="9" t="s">
+      <c r="B642" t="s">
         <v>986</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A643" s="10" t="s">
+      <c r="A643" s="2" t="s">
         <v>987</v>
       </c>
-      <c r="B643" s="9" t="s">
+      <c r="B643" t="s">
         <v>987</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A644" s="10" t="s">
+      <c r="A644" s="2" t="s">
         <v>1257</v>
       </c>
-      <c r="B644" s="9" t="s">
+      <c r="B644" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A645" s="10" t="s">
+      <c r="A645" s="2" t="s">
         <v>988</v>
       </c>
-      <c r="B645" s="9" t="s">
+      <c r="B645" t="s">
         <v>988</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A646" s="10" t="s">
+      <c r="A646" s="2" t="s">
         <v>989</v>
       </c>
-      <c r="B646" s="9" t="s">
+      <c r="B646" t="s">
         <v>989</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A647" s="10" t="s">
+      <c r="A647" s="2" t="s">
         <v>990</v>
       </c>
-      <c r="B647" s="9" t="s">
+      <c r="B647" t="s">
         <v>990</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A648" s="10" t="s">
+      <c r="A648" s="2" t="s">
         <v>991</v>
       </c>
-      <c r="B648" s="9" t="s">
+      <c r="B648" t="s">
         <v>991</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A649" s="10" t="s">
+      <c r="A649" s="2" t="s">
         <v>992</v>
       </c>
-      <c r="B649" s="9" t="s">
+      <c r="B649" t="s">
         <v>992</v>
       </c>
     </row>
@@ -10453,312 +10806,312 @@
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A651" s="10" t="s">
+      <c r="A651" s="2" t="s">
         <v>996</v>
       </c>
-      <c r="B651" s="9" t="s">
+      <c r="B651" t="s">
         <v>996</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A652" s="10" t="s">
+      <c r="A652" s="2" t="s">
         <v>997</v>
       </c>
-      <c r="B652" s="9" t="s">
+      <c r="B652" t="s">
         <v>997</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A653" s="10" t="s">
+      <c r="A653" s="2" t="s">
         <v>998</v>
       </c>
-      <c r="B653" s="9" t="s">
+      <c r="B653" t="s">
         <v>998</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A654" s="10" t="s">
+      <c r="A654" s="2" t="s">
         <v>1001</v>
       </c>
-      <c r="B654" s="9" t="s">
+      <c r="B654" t="s">
         <v>1001</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A655" s="10" t="s">
+      <c r="A655" s="2" t="s">
         <v>1002</v>
       </c>
-      <c r="B655" s="9" t="s">
+      <c r="B655" t="s">
         <v>1002</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A656" s="10" t="s">
+      <c r="A656" s="2" t="s">
         <v>1003</v>
       </c>
-      <c r="B656" s="9" t="s">
+      <c r="B656" t="s">
         <v>1003</v>
       </c>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A657" s="10" t="s">
+      <c r="A657" s="2" t="s">
         <v>1004</v>
       </c>
-      <c r="B657" s="9" t="s">
+      <c r="B657" t="s">
         <v>1004</v>
       </c>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A658" s="10" t="s">
+      <c r="A658" s="2" t="s">
         <v>1005</v>
       </c>
-      <c r="B658" s="9" t="s">
+      <c r="B658" t="s">
         <v>1005</v>
       </c>
-      <c r="C658" s="9" t="s">
+      <c r="C658" t="s">
         <v>1008</v>
       </c>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A659" s="10" t="s">
+      <c r="A659" s="2" t="s">
         <v>1140</v>
       </c>
-      <c r="B659" s="9" t="s">
+      <c r="B659" t="s">
         <v>1009</v>
       </c>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A660" s="10" t="s">
+      <c r="A660" s="2" t="s">
         <v>1006</v>
       </c>
-      <c r="B660" s="9" t="s">
+      <c r="B660" t="s">
         <v>1006</v>
       </c>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A661" s="10" t="s">
+      <c r="A661" s="2" t="s">
         <v>1007</v>
       </c>
-      <c r="B661" s="9" t="s">
+      <c r="B661" t="s">
         <v>1007</v>
       </c>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A662" s="10" t="s">
+      <c r="A662" s="2" t="s">
         <v>1010</v>
       </c>
-      <c r="B662" s="9" t="s">
+      <c r="B662" t="s">
         <v>1010</v>
       </c>
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A663" s="10" t="s">
+      <c r="A663" s="2" t="s">
         <v>1011</v>
       </c>
-      <c r="B663" s="9" t="s">
+      <c r="B663" t="s">
         <v>1011</v>
       </c>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A664" s="10" t="s">
+      <c r="A664" s="2" t="s">
         <v>1141</v>
       </c>
-      <c r="B664" s="9" t="s">
+      <c r="B664" t="s">
         <v>1012</v>
       </c>
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A665" s="10" t="s">
+      <c r="A665" s="2" t="s">
         <v>1013</v>
       </c>
-      <c r="B665" s="9" t="s">
+      <c r="B665" t="s">
         <v>1013</v>
       </c>
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A666" s="10" t="s">
+      <c r="A666" s="2" t="s">
         <v>1014</v>
       </c>
-      <c r="B666" s="9" t="s">
+      <c r="B666" t="s">
         <v>1014</v>
       </c>
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A667" s="10" t="s">
+      <c r="A667" s="2" t="s">
         <v>1015</v>
       </c>
-      <c r="B667" s="9" t="s">
+      <c r="B667" t="s">
         <v>1015</v>
       </c>
-      <c r="C667" s="9" t="s">
+      <c r="C667" t="s">
         <v>1018</v>
       </c>
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A668" s="10" t="s">
+      <c r="A668" s="2" t="s">
         <v>1016</v>
       </c>
-      <c r="B668" s="9" t="s">
+      <c r="B668" t="s">
         <v>1016</v>
       </c>
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A669" s="10" t="s">
+      <c r="A669" s="2" t="s">
         <v>1017</v>
       </c>
-      <c r="B669" s="9" t="s">
+      <c r="B669" t="s">
         <v>1017</v>
       </c>
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A670" s="10" t="s">
+      <c r="A670" s="2" t="s">
         <v>1019</v>
       </c>
-      <c r="B670" s="9" t="s">
+      <c r="B670" t="s">
         <v>1019</v>
       </c>
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A671" s="10" t="s">
+      <c r="A671" s="2" t="s">
         <v>1020</v>
       </c>
-      <c r="B671" s="9" t="s">
+      <c r="B671" t="s">
         <v>1020</v>
       </c>
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A672" s="10" t="s">
+      <c r="A672" s="2" t="s">
         <v>1021</v>
       </c>
-      <c r="B672" s="9" t="s">
+      <c r="B672" t="s">
         <v>1021</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A673" s="10" t="s">
+      <c r="A673" s="2" t="s">
         <v>1022</v>
       </c>
-      <c r="B673" s="9" t="s">
+      <c r="B673" t="s">
         <v>1022</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A674" s="10" t="s">
+      <c r="A674" s="2" t="s">
         <v>1023</v>
       </c>
-      <c r="B674" s="9" t="s">
+      <c r="B674" t="s">
         <v>1023</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A675" s="10" t="s">
+      <c r="A675" s="2" t="s">
         <v>1024</v>
       </c>
-      <c r="B675" s="9" t="s">
+      <c r="B675" t="s">
         <v>1024</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A676" s="10" t="s">
+      <c r="A676" s="2" t="s">
         <v>1025</v>
       </c>
-      <c r="B676" s="9" t="s">
+      <c r="B676" t="s">
         <v>1025</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A677" s="10" t="s">
+      <c r="A677" s="2" t="s">
         <v>1026</v>
       </c>
-      <c r="B677" s="9" t="s">
+      <c r="B677" t="s">
         <v>1026</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A678" s="10" t="s">
+      <c r="A678" s="2" t="s">
         <v>1027</v>
       </c>
-      <c r="B678" s="9" t="s">
+      <c r="B678" t="s">
         <v>1027</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A679" s="10" t="s">
+      <c r="A679" s="2" t="s">
         <v>1276</v>
       </c>
-      <c r="B679" s="9" t="s">
+      <c r="B679" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A680" s="10" t="s">
+      <c r="A680" s="2" t="s">
         <v>1142</v>
       </c>
-      <c r="B680" s="9" t="s">
+      <c r="B680" t="s">
         <v>1028</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A681" s="10" t="s">
+      <c r="A681" s="2" t="s">
         <v>1029</v>
       </c>
-      <c r="B681" s="9" t="s">
+      <c r="B681" t="s">
         <v>1029</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A682" s="10" t="s">
+      <c r="A682" s="2" t="s">
         <v>1030</v>
       </c>
-      <c r="B682" s="9" t="s">
+      <c r="B682" t="s">
         <v>1030</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A683" s="10" t="s">
+      <c r="A683" s="2" t="s">
         <v>1031</v>
       </c>
-      <c r="B683" s="9" t="s">
+      <c r="B683" t="s">
         <v>1031</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A684" s="10" t="s">
+      <c r="A684" s="2" t="s">
         <v>1032</v>
       </c>
-      <c r="B684" s="9" t="s">
+      <c r="B684" t="s">
         <v>1032</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A685" s="10" t="s">
+      <c r="A685" s="2" t="s">
         <v>1033</v>
       </c>
-      <c r="B685" s="9" t="s">
+      <c r="B685" t="s">
         <v>1033</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A686" s="10" t="s">
+      <c r="A686" s="2" t="s">
         <v>1034</v>
       </c>
-      <c r="B686" s="9" t="s">
+      <c r="B686" t="s">
         <v>1034</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A687" s="10" t="s">
+      <c r="A687" s="2" t="s">
         <v>1035</v>
       </c>
-      <c r="B687" s="9" t="s">
+      <c r="B687" t="s">
         <v>1035</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A688" s="10" t="s">
+      <c r="A688" s="2" t="s">
         <v>1396</v>
       </c>
-      <c r="B688" s="9" t="s">
+      <c r="B688" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -10769,321 +11122,321 @@
       <c r="B689" t="s">
         <v>466</v>
       </c>
-      <c r="C689" s="9" t="s">
+      <c r="C689" t="s">
         <v>1037</v>
       </c>
-      <c r="D689" s="9" t="s">
+      <c r="D689" t="s">
         <v>1038</v>
       </c>
     </row>
     <row r="690" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A690" s="10" t="s">
+      <c r="A690" s="2" t="s">
         <v>1229</v>
       </c>
-      <c r="B690" s="9" t="s">
+      <c r="B690" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="691" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A691" s="10" t="s">
+      <c r="A691" s="2" t="s">
         <v>1339</v>
       </c>
-      <c r="B691" s="9" t="s">
+      <c r="B691" t="s">
         <v>840</v>
       </c>
     </row>
     <row r="692" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A692" s="10" t="s">
+      <c r="A692" s="2" t="s">
         <v>1046</v>
       </c>
-      <c r="B692" s="9" t="s">
+      <c r="B692" t="s">
         <v>1046</v>
       </c>
     </row>
     <row r="693" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A693" s="10" t="s">
+      <c r="A693" s="2" t="s">
         <v>1047</v>
       </c>
-      <c r="B693" s="9" t="s">
+      <c r="B693" t="s">
         <v>1047</v>
       </c>
     </row>
     <row r="694" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A694" s="10" t="s">
+      <c r="A694" s="2" t="s">
         <v>1401</v>
       </c>
-      <c r="B694" s="9" t="s">
+      <c r="B694" t="s">
         <v>1048</v>
       </c>
     </row>
     <row r="695" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A695" s="10" t="s">
+      <c r="A695" s="2" t="s">
         <v>1050</v>
       </c>
-      <c r="B695" s="9" t="s">
+      <c r="B695" t="s">
         <v>1050</v>
       </c>
     </row>
     <row r="696" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A696" s="10" t="s">
+      <c r="A696" s="2" t="s">
         <v>1051</v>
       </c>
-      <c r="B696" s="9" t="s">
+      <c r="B696" t="s">
         <v>1051</v>
       </c>
     </row>
     <row r="697" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A697" s="10" t="s">
+      <c r="A697" s="2" t="s">
         <v>1052</v>
       </c>
-      <c r="B697" s="9" t="s">
+      <c r="B697" t="s">
         <v>1052</v>
       </c>
     </row>
     <row r="698" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A698" s="10" t="s">
+      <c r="A698" s="2" t="s">
         <v>1223</v>
       </c>
-      <c r="B698" s="9" t="s">
+      <c r="B698" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="699" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A699" s="10" t="s">
+      <c r="A699" s="2" t="s">
         <v>1405</v>
       </c>
-      <c r="B699" s="9" t="s">
+      <c r="B699" t="s">
         <v>1088</v>
       </c>
     </row>
     <row r="700" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A700" s="10" t="s">
+      <c r="A700" s="2" t="s">
         <v>1053</v>
       </c>
-      <c r="B700" s="9" t="s">
+      <c r="B700" t="s">
         <v>1053</v>
       </c>
     </row>
     <row r="701" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A701" s="10" t="s">
+      <c r="A701" s="2" t="s">
         <v>1054</v>
       </c>
-      <c r="B701" s="9" t="s">
+      <c r="B701" t="s">
         <v>1054</v>
       </c>
     </row>
     <row r="702" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A702" s="10" t="s">
+      <c r="A702" s="2" t="s">
         <v>1056</v>
       </c>
-      <c r="B702" s="9" t="s">
+      <c r="B702" t="s">
         <v>1056</v>
       </c>
     </row>
     <row r="703" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A703" s="10" t="s">
+      <c r="A703" s="2" t="s">
         <v>1057</v>
       </c>
-      <c r="B703" s="9" t="s">
+      <c r="B703" t="s">
         <v>1057</v>
       </c>
-      <c r="C703" s="9" t="s">
+      <c r="C703" t="s">
         <v>1060</v>
       </c>
     </row>
     <row r="704" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A704" s="10" t="s">
+      <c r="A704" s="2" t="s">
         <v>1058</v>
       </c>
-      <c r="B704" s="9" t="s">
+      <c r="B704" t="s">
         <v>1058</v>
       </c>
-      <c r="C704" s="9" t="s">
+      <c r="C704" t="s">
         <v>1061</v>
       </c>
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A705" s="10" t="s">
+      <c r="A705" s="2" t="s">
         <v>1059</v>
       </c>
-      <c r="B705" s="9" t="s">
+      <c r="B705" t="s">
         <v>1059</v>
       </c>
-      <c r="C705" s="9" t="s">
+      <c r="C705" t="s">
         <v>1062</v>
       </c>
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A706" s="10" t="s">
+      <c r="A706" s="2" t="s">
         <v>1063</v>
       </c>
-      <c r="B706" s="9" t="s">
+      <c r="B706" t="s">
         <v>1063</v>
       </c>
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A707" s="10" t="s">
+      <c r="A707" s="2" t="s">
         <v>1064</v>
       </c>
-      <c r="B707" s="9" t="s">
+      <c r="B707" t="s">
         <v>1064</v>
       </c>
     </row>
     <row r="708" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A708" s="10" t="s">
+      <c r="A708" s="2" t="s">
         <v>1065</v>
       </c>
-      <c r="B708" s="9" t="s">
+      <c r="B708" t="s">
         <v>1065</v>
       </c>
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A709" s="10" t="s">
+      <c r="A709" s="2" t="s">
         <v>1066</v>
       </c>
-      <c r="B709" s="9" t="s">
+      <c r="B709" t="s">
         <v>1066</v>
       </c>
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A710" s="10" t="s">
+      <c r="A710" s="2" t="s">
         <v>1067</v>
       </c>
-      <c r="B710" s="9" t="s">
+      <c r="B710" t="s">
         <v>1067</v>
       </c>
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A711" s="10" t="s">
+      <c r="A711" s="2" t="s">
         <v>1068</v>
       </c>
-      <c r="B711" s="9" t="s">
+      <c r="B711" t="s">
         <v>1068</v>
       </c>
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A712" s="10" t="s">
+      <c r="A712" s="2" t="s">
         <v>1069</v>
       </c>
-      <c r="B712" s="9" t="s">
+      <c r="B712" t="s">
         <v>1069</v>
       </c>
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A713" s="10" t="s">
+      <c r="A713" s="2" t="s">
         <v>1070</v>
       </c>
-      <c r="B713" s="9" t="s">
+      <c r="B713" t="s">
         <v>1070</v>
       </c>
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A714" s="10" t="s">
+      <c r="A714" s="2" t="s">
         <v>1071</v>
       </c>
-      <c r="B714" s="9" t="s">
+      <c r="B714" t="s">
         <v>1071</v>
       </c>
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A715" s="10" t="s">
+      <c r="A715" s="2" t="s">
         <v>1072</v>
       </c>
-      <c r="B715" s="9" t="s">
+      <c r="B715" t="s">
         <v>1072</v>
       </c>
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A716" s="10" t="s">
+      <c r="A716" s="2" t="s">
         <v>1073</v>
       </c>
-      <c r="B716" s="9" t="s">
+      <c r="B716" t="s">
         <v>1073</v>
       </c>
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A717" s="10" t="s">
+      <c r="A717" s="2" t="s">
         <v>1074</v>
       </c>
-      <c r="B717" s="9" t="s">
+      <c r="B717" t="s">
         <v>1074</v>
       </c>
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A718" s="10" t="s">
+      <c r="A718" s="2" t="s">
         <v>1075</v>
       </c>
-      <c r="B718" s="9" t="s">
+      <c r="B718" t="s">
         <v>1075</v>
       </c>
-      <c r="C718" s="9" t="s">
+      <c r="C718" t="s">
         <v>1078</v>
       </c>
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A719" s="10" t="s">
+      <c r="A719" s="2" t="s">
         <v>1076</v>
       </c>
-      <c r="B719" s="9" t="s">
+      <c r="B719" t="s">
         <v>1076</v>
       </c>
-      <c r="C719" s="9" t="s">
+      <c r="C719" t="s">
         <v>1079</v>
       </c>
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A720" s="10" t="s">
+      <c r="A720" s="2" t="s">
         <v>1143</v>
       </c>
-      <c r="B720" s="9" t="s">
+      <c r="B720" t="s">
         <v>1080</v>
       </c>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A721" s="10" t="s">
+      <c r="A721" s="2" t="s">
         <v>1077</v>
       </c>
-      <c r="B721" s="9" t="s">
+      <c r="B721" t="s">
         <v>1077</v>
       </c>
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A722" s="10" t="s">
+      <c r="A722" s="2" t="s">
         <v>1081</v>
       </c>
-      <c r="B722" s="9" t="s">
+      <c r="B722" t="s">
         <v>1081</v>
       </c>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A723" s="10" t="s">
+      <c r="A723" s="2" t="s">
         <v>1082</v>
       </c>
-      <c r="B723" s="9" t="s">
+      <c r="B723" t="s">
         <v>1082</v>
       </c>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A724" s="10" t="s">
+      <c r="A724" s="2" t="s">
         <v>1083</v>
       </c>
-      <c r="B724" s="9" t="s">
+      <c r="B724" t="s">
         <v>1083</v>
       </c>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A725" s="10" t="s">
+      <c r="A725" s="2" t="s">
         <v>1084</v>
       </c>
-      <c r="B725" s="9" t="s">
+      <c r="B725" t="s">
         <v>1084</v>
       </c>
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A726" s="10" t="s">
+      <c r="A726" s="2" t="s">
         <v>1085</v>
       </c>
-      <c r="B726" s="9" t="s">
+      <c r="B726" t="s">
         <v>1085</v>
       </c>
     </row>
@@ -11096,106 +11449,106 @@
       </c>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A728" s="10" t="s">
+      <c r="A728" s="2" t="s">
         <v>1086</v>
       </c>
-      <c r="B728" s="9" t="s">
+      <c r="B728" t="s">
         <v>1086</v>
       </c>
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A729" s="10" t="s">
+      <c r="A729" s="2" t="s">
         <v>1090</v>
       </c>
-      <c r="B729" s="9" t="s">
+      <c r="B729" t="s">
         <v>1090</v>
       </c>
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A730" s="10" t="s">
+      <c r="A730" s="2" t="s">
         <v>1374</v>
       </c>
-      <c r="B730" s="9" t="s">
+      <c r="B730" t="s">
         <v>936</v>
       </c>
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A731" s="10" t="s">
+      <c r="A731" s="2" t="s">
         <v>1381</v>
       </c>
-      <c r="B731" s="9" t="s">
+      <c r="B731" t="s">
         <v>959</v>
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A732" s="10" t="s">
+      <c r="A732" s="2" t="s">
         <v>1091</v>
       </c>
-      <c r="B732" s="9" t="s">
+      <c r="B732" t="s">
         <v>1091</v>
       </c>
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A733" s="10" t="s">
+      <c r="A733" s="2" t="s">
         <v>1092</v>
       </c>
-      <c r="B733" s="9" t="s">
+      <c r="B733" t="s">
         <v>1092</v>
       </c>
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A734" s="10" t="s">
+      <c r="A734" s="2" t="s">
         <v>1093</v>
       </c>
-      <c r="B734" s="9" t="s">
+      <c r="B734" t="s">
         <v>1093</v>
       </c>
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A735" s="10" t="s">
+      <c r="A735" s="2" t="s">
         <v>1368</v>
       </c>
-      <c r="B735" s="9" t="s">
+      <c r="B735" t="s">
         <v>906</v>
       </c>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A736" s="10" t="s">
+      <c r="A736" s="2" t="s">
         <v>1095</v>
       </c>
-      <c r="B736" s="9" t="s">
+      <c r="B736" t="s">
         <v>1095</v>
       </c>
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A737" s="10" t="s">
+      <c r="A737" s="2" t="s">
         <v>1098</v>
       </c>
-      <c r="B737" s="9" t="s">
+      <c r="B737" t="s">
         <v>1098</v>
       </c>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A738" s="10" t="s">
+      <c r="A738" s="2" t="s">
         <v>1268</v>
       </c>
-      <c r="B738" s="9" t="s">
+      <c r="B738" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A739" s="10" t="s">
+      <c r="A739" s="2" t="s">
         <v>1099</v>
       </c>
-      <c r="B739" s="9" t="s">
+      <c r="B739" t="s">
         <v>1099</v>
       </c>
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A740" s="10" t="s">
+      <c r="A740" s="2" t="s">
         <v>1100</v>
       </c>
-      <c r="B740" s="9" t="s">
+      <c r="B740" t="s">
         <v>1100</v>
       </c>
     </row>
@@ -11208,319 +11561,28 @@
       </c>
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A742" s="10" t="s">
+      <c r="A742" s="2" t="s">
         <v>1370</v>
       </c>
-      <c r="B742" s="9" t="s">
+      <c r="B742" t="s">
         <v>909</v>
       </c>
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A743" s="10" t="s">
+      <c r="A743" s="2" t="s">
         <v>1370</v>
       </c>
-      <c r="B743" s="9" t="s">
+      <c r="B743" t="s">
         <v>1101</v>
       </c>
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A744" s="10" t="s">
+      <c r="A744" s="2" t="s">
         <v>1102</v>
       </c>
-      <c r="B744" s="9" t="s">
+      <c r="B744" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="764" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A764" s="9"/>
-    </row>
-    <row r="765" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A765" s="9"/>
-      <c r="B765" s="9"/>
-    </row>
-    <row r="766" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A766" s="9"/>
-      <c r="B766" s="9"/>
-    </row>
-    <row r="767" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A767" s="9"/>
-    </row>
-    <row r="768" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A768" s="9"/>
-    </row>
-    <row r="769" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A769" s="9"/>
-      <c r="B769" s="9"/>
-    </row>
-    <row r="802" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A802" s="9"/>
-      <c r="B802" s="9"/>
-    </row>
-    <row r="803" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A803" s="9"/>
-      <c r="B803" s="9"/>
-    </row>
-    <row r="804" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A804" s="9"/>
-    </row>
-    <row r="805" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A805" s="9"/>
-      <c r="B805" s="9"/>
-    </row>
-    <row r="806" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A806" s="9"/>
-      <c r="B806" s="9"/>
-    </row>
-    <row r="807" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A807" s="9"/>
-      <c r="B807" s="9"/>
-    </row>
-    <row r="808" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A808" s="9"/>
-    </row>
-    <row r="809" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A809" s="9"/>
-      <c r="B809" s="9"/>
-    </row>
-    <row r="810" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A810" s="9"/>
-      <c r="B810" s="9"/>
-    </row>
-    <row r="811" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A811" s="9"/>
-      <c r="B811" s="9"/>
-    </row>
-    <row r="812" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A812" s="9"/>
-      <c r="B812" s="9"/>
-    </row>
-    <row r="813" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A813" s="9"/>
-      <c r="B813" s="9"/>
-    </row>
-    <row r="814" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A814" s="9"/>
-      <c r="B814" s="9"/>
-    </row>
-    <row r="815" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A815" s="9"/>
-      <c r="B815" s="9"/>
-    </row>
-    <row r="816" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A816" s="9"/>
-    </row>
-    <row r="817" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A817" s="9"/>
-    </row>
-    <row r="818" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A818" s="9"/>
-    </row>
-    <row r="819" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A819" s="9"/>
-    </row>
-    <row r="820" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A820" s="9"/>
-      <c r="B820" s="9"/>
-    </row>
-    <row r="821" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A821" s="9"/>
-      <c r="B821" s="9"/>
-    </row>
-    <row r="822" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A822" s="9"/>
-      <c r="B822" s="9"/>
-    </row>
-    <row r="823" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A823" s="9"/>
-    </row>
-    <row r="824" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A824" s="9"/>
-    </row>
-    <row r="825" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A825" s="9"/>
-    </row>
-    <row r="826" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A826" s="9"/>
-      <c r="B826" s="9"/>
-    </row>
-    <row r="827" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A827" s="9"/>
-    </row>
-    <row r="828" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A828" s="9"/>
-    </row>
-    <row r="829" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A829" s="9"/>
-    </row>
-    <row r="831" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A831" s="9"/>
-    </row>
-    <row r="832" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A832" s="9"/>
-      <c r="B832" s="9"/>
-    </row>
-    <row r="833" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A833" s="9"/>
-    </row>
-    <row r="834" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A834" s="9"/>
-      <c r="B834" s="9"/>
-    </row>
-    <row r="835" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A835" s="9"/>
-      <c r="B835" s="9"/>
-    </row>
-    <row r="836" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A836" s="9"/>
-      <c r="B836" s="9"/>
-    </row>
-    <row r="837" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A837" s="9"/>
-    </row>
-    <row r="838" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A838" s="9"/>
-      <c r="B838" s="9"/>
-    </row>
-    <row r="839" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A839" s="9"/>
-      <c r="B839" s="9"/>
-    </row>
-    <row r="840" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A840" s="9"/>
-      <c r="B840" s="9"/>
-    </row>
-    <row r="841" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A841" s="9"/>
-      <c r="B841" s="9"/>
-    </row>
-    <row r="842" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A842" s="9"/>
-      <c r="B842" s="9"/>
-    </row>
-    <row r="843" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A843" s="9"/>
-      <c r="B843" s="9"/>
-    </row>
-    <row r="844" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A844" s="9"/>
-      <c r="B844" s="9"/>
-    </row>
-    <row r="845" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A845" s="9"/>
-      <c r="B845" s="9"/>
-    </row>
-    <row r="846" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A846" s="9"/>
-      <c r="B846" s="9"/>
-    </row>
-    <row r="847" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A847" s="9"/>
-    </row>
-    <row r="848" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A848" s="9"/>
-    </row>
-    <row r="849" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A849" s="9"/>
-      <c r="B849" s="9"/>
-    </row>
-    <row r="850" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A850" s="9"/>
-      <c r="B850" s="9"/>
-    </row>
-    <row r="851" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A851" s="9"/>
-    </row>
-    <row r="852" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A852" s="9"/>
-    </row>
-    <row r="853" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A853" s="9"/>
-    </row>
-    <row r="854" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A854" s="9"/>
-      <c r="B854" s="9"/>
-    </row>
-    <row r="855" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A855" s="9"/>
-      <c r="B855" s="9"/>
-    </row>
-    <row r="856" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A856" s="9"/>
-      <c r="B856" s="9"/>
-    </row>
-    <row r="857" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A857" s="9"/>
-      <c r="B857" s="9"/>
-    </row>
-    <row r="858" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A858" s="9"/>
-      <c r="B858" s="9"/>
-    </row>
-    <row r="859" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A859" s="9"/>
-      <c r="B859" s="9"/>
-    </row>
-    <row r="860" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A860" s="9"/>
-      <c r="B860" s="9"/>
-    </row>
-    <row r="861" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A861" s="9"/>
-    </row>
-    <row r="862" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A862" s="9"/>
-      <c r="B862" s="9"/>
-    </row>
-    <row r="863" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A863" s="9"/>
-      <c r="B863" s="9"/>
-    </row>
-    <row r="864" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A864" s="9"/>
-      <c r="B864" s="9"/>
-    </row>
-    <row r="865" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A865" s="9"/>
-      <c r="B865" s="9"/>
-    </row>
-    <row r="866" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A866" s="9"/>
-      <c r="B866" s="9"/>
-    </row>
-    <row r="867" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A867" s="9"/>
-      <c r="B867" s="9"/>
-    </row>
-    <row r="868" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A868" s="9"/>
-      <c r="B868" s="9"/>
-    </row>
-    <row r="869" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A869" s="9"/>
-      <c r="B869" s="9"/>
-    </row>
-    <row r="870" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A870" s="9"/>
-      <c r="B870" s="9"/>
-    </row>
-    <row r="871" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A871" s="9"/>
-    </row>
-    <row r="872" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A872" s="9"/>
-      <c r="B872" s="9"/>
-    </row>
-    <row r="873" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A873" s="9"/>
-      <c r="B873" s="9"/>
-    </row>
-    <row r="874" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A874" s="9"/>
-      <c r="B874" s="9"/>
-    </row>
-    <row r="875" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A875" s="9"/>
-      <c r="B875" s="9"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H744">
@@ -11531,11 +11593,635 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54FA4857-B187-674E-95A4-FB6090AE4BBE}">
+  <dimension ref="A1:C98"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="57.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66AE9938-48BD-A34B-9BE9-6B820426055E}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1526</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1530</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FACD92D8-CF26-344E-82C4-A76E8DCCF9B0}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11581,7 +12267,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD2BCE9-8175-1F49-9B64-26B7DFD094BF}">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -11628,7 +12314,7 @@
       <c r="B4" t="s">
         <v>1110</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" t="s">
         <v>1108</v>
       </c>
     </row>
@@ -11667,7 +12353,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22A2E2C1-9C72-1C41-A976-AEC231EBF41D}">
   <dimension ref="A1:H65"/>
   <sheetViews>
@@ -12107,7 +12793,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8542E084-92E7-2C40-B211-9CB699C636AA}">
   <dimension ref="A1:I60"/>
   <sheetViews>
